--- a/files/tabel/tabel-2018-07.xlsx
+++ b/files/tabel/tabel-2018-07.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="156">
   <si>
     <t>(подпись)</t>
   </si>
@@ -228,10 +228,10 @@
     <t>ИЮЛЯ</t>
   </si>
   <si>
-    <t>02/07/2018</t>
+    <t>15/08/2018</t>
   </si>
   <si>
-    <t>02</t>
+    <t>15</t>
   </si>
   <si>
     <t>июля</t>
@@ -282,10 +282,16 @@
     <t>техник</t>
   </si>
   <si>
+    <t>Б</t>
+  </si>
+  <si>
     <t>О</t>
   </si>
   <si>
-    <t>20/2</t>
+    <t>8/2</t>
+  </si>
+  <si>
+    <t>8/14</t>
   </si>
   <si>
     <t>Быков А.Р.</t>
@@ -295,6 +301,9 @@
   </si>
   <si>
     <t>техник-программист</t>
+  </si>
+  <si>
+    <t>20/2</t>
   </si>
   <si>
     <t>Дубровская Л.А.</t>
@@ -322,6 +331,15 @@
   </si>
   <si>
     <t>инженер-электроник</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>6/4</t>
+  </si>
+  <si>
+    <t>16/6</t>
   </si>
   <si>
     <t>Иванова А.С.</t>
@@ -363,13 +381,16 @@
     <t>13098</t>
   </si>
   <si>
+    <t>9/1</t>
+  </si>
+  <si>
+    <t>21/1</t>
+  </si>
+  <si>
     <t>Малютина Е.Н.</t>
   </si>
   <si>
     <t>223121</t>
-  </si>
-  <si>
-    <t>10/12</t>
   </si>
   <si>
     <t>Милов Н.В.</t>
@@ -424,9 +445,6 @@
   </si>
   <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>16</t>
@@ -486,6 +504,9 @@
     <t>вед.инженер-программист</t>
   </si>
   <si>
+    <t>18/0</t>
+  </si>
+  <si>
     <t>Сухов В.О.</t>
   </si>
   <si>
@@ -502,6 +523,9 @@
   </si>
   <si>
     <t>нач. управления ИОиИБ</t>
+  </si>
+  <si>
+    <t>10/12</t>
   </si>
   <si>
     <t>Числов Г.А.</t>
@@ -566,7 +590,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +605,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,6 +635,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -1665,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4193">
+  <cellXfs count="4194">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -13691,6 +13735,66 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13709,12 +13813,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13724,9 +13822,126 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="9" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="11" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="11" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="11" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="11" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="11" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="11" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13742,10 +13957,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
@@ -13754,24 +13966,159 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13784,6 +14131,60 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13841,6 +14242,37 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13868,12 +14300,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13901,6 +14327,12 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13928,10 +14360,10 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
@@ -13955,18 +14387,57 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13988,18 +14459,60 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14009,564 +14522,98 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="5" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="59" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="true" applyFont="1" applyNumberFormat="1" borderId="9" fillId="7" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="59" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="70" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="74" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="79" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="79" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="1" fillId="16" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="85" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="85" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="98" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="92" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="98" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="104" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="104" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="false"/>
     </xf>
@@ -16623,94 +16670,94 @@
         <v>63</v>
       </c>
       <c r="AY20" s="181"/>
-      <c r="AZ20" s="182" t="s">
-        <v>63</v>
+      <c r="AZ20" s="3905" t="s">
+        <v>70</v>
       </c>
       <c r="BA20" s="183"/>
-      <c r="BB20" s="184" t="s">
-        <v>63</v>
+      <c r="BB20" s="3906" t="s">
+        <v>70</v>
       </c>
       <c r="BC20" s="185"/>
-      <c r="BD20" s="3905" t="s">
-        <v>61</v>
+      <c r="BD20" s="3907" t="s">
+        <v>70</v>
       </c>
       <c r="BE20" s="187"/>
-      <c r="BF20" s="3906" t="s">
-        <v>61</v>
+      <c r="BF20" s="3908" t="s">
+        <v>70</v>
       </c>
       <c r="BG20" s="189"/>
       <c r="BH20" s="190" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="BI20" s="191"/>
       <c r="BJ20" s="192"/>
       <c r="BK20" s="193"/>
-      <c r="BL20" s="194" t="s">
-        <v>63</v>
+      <c r="BL20" s="3909" t="s">
+        <v>70</v>
       </c>
       <c r="BM20" s="195"/>
-      <c r="BN20" s="196" t="s">
-        <v>63</v>
+      <c r="BN20" s="3910" t="s">
+        <v>70</v>
       </c>
       <c r="BO20" s="197"/>
-      <c r="BP20" s="198" t="s">
-        <v>63</v>
+      <c r="BP20" s="3911" t="s">
+        <v>70</v>
       </c>
       <c r="BQ20" s="199"/>
-      <c r="BR20" s="200" t="s">
-        <v>63</v>
+      <c r="BR20" s="3912" t="s">
+        <v>70</v>
       </c>
       <c r="BS20" s="201"/>
-      <c r="BT20" s="202" t="s">
-        <v>63</v>
+      <c r="BT20" s="3913" t="s">
+        <v>70</v>
       </c>
       <c r="BU20" s="203"/>
-      <c r="BV20" s="3907" t="s">
-        <v>61</v>
+      <c r="BV20" s="3914" t="s">
+        <v>70</v>
       </c>
       <c r="BW20" s="205"/>
-      <c r="BX20" s="3908" t="s">
-        <v>61</v>
+      <c r="BX20" s="3915" t="s">
+        <v>70</v>
       </c>
       <c r="BY20" s="207"/>
-      <c r="BZ20" s="208" t="s">
-        <v>63</v>
+      <c r="BZ20" s="3916" t="s">
+        <v>70</v>
       </c>
       <c r="CA20" s="209"/>
-      <c r="CB20" s="210" t="s">
-        <v>63</v>
+      <c r="CB20" s="3917" t="s">
+        <v>70</v>
       </c>
       <c r="CC20" s="211"/>
-      <c r="CD20" s="212" t="s">
-        <v>63</v>
+      <c r="CD20" s="3918" t="s">
+        <v>70</v>
       </c>
       <c r="CE20" s="213"/>
-      <c r="CF20" s="214" t="s">
-        <v>63</v>
+      <c r="CF20" s="3919" t="s">
+        <v>70</v>
       </c>
       <c r="CG20" s="215"/>
-      <c r="CH20" s="216" t="s">
-        <v>63</v>
+      <c r="CH20" s="3920" t="s">
+        <v>70</v>
       </c>
       <c r="CI20" s="217"/>
-      <c r="CJ20" s="3909" t="s">
-        <v>61</v>
+      <c r="CJ20" s="3921" t="s">
+        <v>70</v>
       </c>
       <c r="CK20" s="219"/>
-      <c r="CL20" s="3910" t="s">
-        <v>61</v>
+      <c r="CL20" s="3922" t="s">
+        <v>70</v>
       </c>
       <c r="CM20" s="221"/>
-      <c r="CN20" s="3911" t="s">
-        <v>70</v>
+      <c r="CN20" s="3923" t="s">
+        <v>71</v>
       </c>
       <c r="CO20" s="223"/>
-      <c r="CP20" s="3912" t="s">
-        <v>70</v>
+      <c r="CP20" s="3924" t="s">
+        <v>71</v>
       </c>
       <c r="CQ20" s="225"/>
       <c r="CR20" s="226" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CS20" s="227"/>
       <c r="CT20" s="228"/>
@@ -16790,19 +16837,19 @@
         <v>4.0</v>
       </c>
       <c r="AY21" s="280"/>
-      <c r="AZ21" s="281" t="n">
-        <v>4.0</v>
+      <c r="AZ21" s="3905" t="s">
+        <v>62</v>
       </c>
       <c r="BA21" s="282"/>
-      <c r="BB21" s="283" t="n">
-        <v>4.0</v>
+      <c r="BB21" s="3906" t="s">
+        <v>62</v>
       </c>
       <c r="BC21" s="284"/>
-      <c r="BD21" s="3905" t="s">
+      <c r="BD21" s="3907" t="s">
         <v>62</v>
       </c>
       <c r="BE21" s="286"/>
-      <c r="BF21" s="3906" t="s">
+      <c r="BF21" s="3908" t="s">
         <v>62</v>
       </c>
       <c r="BG21" s="288"/>
@@ -16810,67 +16857,67 @@
       <c r="BI21" s="290"/>
       <c r="BJ21" s="291"/>
       <c r="BK21" s="292"/>
-      <c r="BL21" s="293" t="n">
-        <v>4.0</v>
+      <c r="BL21" s="3909" t="s">
+        <v>62</v>
       </c>
       <c r="BM21" s="294"/>
-      <c r="BN21" s="295" t="n">
-        <v>4.0</v>
+      <c r="BN21" s="3910" t="s">
+        <v>62</v>
       </c>
       <c r="BO21" s="296"/>
-      <c r="BP21" s="297" t="n">
-        <v>4.0</v>
+      <c r="BP21" s="3911" t="s">
+        <v>62</v>
       </c>
       <c r="BQ21" s="298"/>
-      <c r="BR21" s="299" t="n">
-        <v>4.0</v>
+      <c r="BR21" s="3912" t="s">
+        <v>62</v>
       </c>
       <c r="BS21" s="300"/>
-      <c r="BT21" s="301" t="n">
-        <v>4.0</v>
+      <c r="BT21" s="3913" t="s">
+        <v>62</v>
       </c>
       <c r="BU21" s="302"/>
-      <c r="BV21" s="3907" t="s">
+      <c r="BV21" s="3914" t="s">
         <v>62</v>
       </c>
       <c r="BW21" s="304"/>
-      <c r="BX21" s="3908" t="s">
+      <c r="BX21" s="3915" t="s">
         <v>62</v>
       </c>
       <c r="BY21" s="306"/>
-      <c r="BZ21" s="307" t="n">
-        <v>4.0</v>
+      <c r="BZ21" s="3916" t="s">
+        <v>62</v>
       </c>
       <c r="CA21" s="308"/>
-      <c r="CB21" s="309" t="n">
-        <v>4.0</v>
+      <c r="CB21" s="3917" t="s">
+        <v>62</v>
       </c>
       <c r="CC21" s="310"/>
-      <c r="CD21" s="311" t="n">
-        <v>4.0</v>
+      <c r="CD21" s="3918" t="s">
+        <v>62</v>
       </c>
       <c r="CE21" s="312"/>
-      <c r="CF21" s="313" t="n">
-        <v>4.0</v>
+      <c r="CF21" s="3919" t="s">
+        <v>62</v>
       </c>
       <c r="CG21" s="314"/>
-      <c r="CH21" s="315" t="n">
-        <v>4.0</v>
+      <c r="CH21" s="3920" t="s">
+        <v>62</v>
       </c>
       <c r="CI21" s="316"/>
-      <c r="CJ21" s="3909" t="s">
+      <c r="CJ21" s="3921" t="s">
         <v>62</v>
       </c>
       <c r="CK21" s="318"/>
-      <c r="CL21" s="3910" t="s">
+      <c r="CL21" s="3922" t="s">
         <v>62</v>
       </c>
       <c r="CM21" s="320"/>
-      <c r="CN21" s="3911" t="s">
+      <c r="CN21" s="3923" t="s">
         <v>62</v>
       </c>
       <c r="CO21" s="322"/>
-      <c r="CP21" s="3912" t="s">
+      <c r="CP21" s="3924" t="s">
         <v>62</v>
       </c>
       <c r="CQ21" s="324"/>
@@ -16885,7 +16932,7 @@
       </c>
       <c r="B22" s="330"/>
       <c r="C22" s="331" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="332"/>
       <c r="E22" s="333"/>
@@ -16905,13 +16952,13 @@
       <c r="Q22" s="345"/>
       <c r="R22" s="346"/>
       <c r="S22" s="347" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T22" s="348"/>
       <c r="U22" s="349"/>
       <c r="V22" s="350"/>
       <c r="W22" s="351" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X22" s="352"/>
       <c r="Y22" s="353"/>
@@ -16919,7 +16966,7 @@
       <c r="AA22" s="355"/>
       <c r="AB22" s="356"/>
       <c r="AC22" s="357"/>
-      <c r="AD22" s="3913" t="s">
+      <c r="AD22" s="3925" t="s">
         <v>61</v>
       </c>
       <c r="AE22" s="359"/>
@@ -16943,11 +16990,11 @@
         <v>63</v>
       </c>
       <c r="AO22" s="369"/>
-      <c r="AP22" s="3914" t="s">
+      <c r="AP22" s="3926" t="s">
         <v>61</v>
       </c>
       <c r="AQ22" s="371"/>
-      <c r="AR22" s="3915" t="s">
+      <c r="AR22" s="3927" t="s">
         <v>61</v>
       </c>
       <c r="AS22" s="373"/>
@@ -16971,11 +17018,11 @@
         <v>63</v>
       </c>
       <c r="BC22" s="383"/>
-      <c r="BD22" s="3916" t="s">
+      <c r="BD22" s="3928" t="s">
         <v>61</v>
       </c>
       <c r="BE22" s="385"/>
-      <c r="BF22" s="3917" t="s">
+      <c r="BF22" s="3929" t="s">
         <v>61</v>
       </c>
       <c r="BG22" s="387"/>
@@ -17005,11 +17052,11 @@
         <v>63</v>
       </c>
       <c r="BU22" s="401"/>
-      <c r="BV22" s="3918" t="s">
+      <c r="BV22" s="3930" t="s">
         <v>61</v>
       </c>
       <c r="BW22" s="403"/>
-      <c r="BX22" s="3919" t="s">
+      <c r="BX22" s="3931" t="s">
         <v>61</v>
       </c>
       <c r="BY22" s="405"/>
@@ -17033,24 +17080,24 @@
         <v>63</v>
       </c>
       <c r="CI22" s="415"/>
-      <c r="CJ22" s="3920" t="s">
+      <c r="CJ22" s="3932" t="s">
         <v>61</v>
       </c>
       <c r="CK22" s="417"/>
-      <c r="CL22" s="3921" t="s">
+      <c r="CL22" s="3933" t="s">
         <v>61</v>
       </c>
       <c r="CM22" s="419"/>
-      <c r="CN22" s="3922" t="s">
-        <v>70</v>
+      <c r="CN22" s="3934" t="s">
+        <v>71</v>
       </c>
       <c r="CO22" s="421"/>
-      <c r="CP22" s="3923" t="s">
-        <v>70</v>
+      <c r="CP22" s="3935" t="s">
+        <v>71</v>
       </c>
       <c r="CQ22" s="423"/>
       <c r="CR22" s="424" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS22" s="425"/>
       <c r="CT22" s="426"/>
@@ -17086,7 +17133,7 @@
       <c r="AA23" s="454"/>
       <c r="AB23" s="455"/>
       <c r="AC23" s="456"/>
-      <c r="AD23" s="3913" t="s">
+      <c r="AD23" s="3925" t="s">
         <v>62</v>
       </c>
       <c r="AE23" s="458"/>
@@ -17110,11 +17157,11 @@
         <v>8.0</v>
       </c>
       <c r="AO23" s="468"/>
-      <c r="AP23" s="3914" t="s">
+      <c r="AP23" s="3926" t="s">
         <v>62</v>
       </c>
       <c r="AQ23" s="470"/>
-      <c r="AR23" s="3915" t="s">
+      <c r="AR23" s="3927" t="s">
         <v>62</v>
       </c>
       <c r="AS23" s="472"/>
@@ -17138,11 +17185,11 @@
         <v>8.0</v>
       </c>
       <c r="BC23" s="482"/>
-      <c r="BD23" s="3916" t="s">
+      <c r="BD23" s="3928" t="s">
         <v>62</v>
       </c>
       <c r="BE23" s="484"/>
-      <c r="BF23" s="3917" t="s">
+      <c r="BF23" s="3929" t="s">
         <v>62</v>
       </c>
       <c r="BG23" s="486"/>
@@ -17170,11 +17217,11 @@
         <v>8.0</v>
       </c>
       <c r="BU23" s="500"/>
-      <c r="BV23" s="3918" t="s">
+      <c r="BV23" s="3930" t="s">
         <v>62</v>
       </c>
       <c r="BW23" s="502"/>
-      <c r="BX23" s="3919" t="s">
+      <c r="BX23" s="3931" t="s">
         <v>62</v>
       </c>
       <c r="BY23" s="504"/>
@@ -17198,19 +17245,19 @@
         <v>8.0</v>
       </c>
       <c r="CI23" s="514"/>
-      <c r="CJ23" s="3920" t="s">
+      <c r="CJ23" s="3932" t="s">
         <v>62</v>
       </c>
       <c r="CK23" s="516"/>
-      <c r="CL23" s="3921" t="s">
+      <c r="CL23" s="3933" t="s">
         <v>62</v>
       </c>
       <c r="CM23" s="518"/>
-      <c r="CN23" s="3922" t="s">
+      <c r="CN23" s="3934" t="s">
         <v>62</v>
       </c>
       <c r="CO23" s="520"/>
-      <c r="CP23" s="3923" t="s">
+      <c r="CP23" s="3935" t="s">
         <v>62</v>
       </c>
       <c r="CQ23" s="522"/>
@@ -17225,7 +17272,7 @@
       </c>
       <c r="B24" s="528"/>
       <c r="C24" s="529" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="530"/>
       <c r="E24" s="531"/>
@@ -17245,13 +17292,13 @@
       <c r="Q24" s="543"/>
       <c r="R24" s="544"/>
       <c r="S24" s="545" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T24" s="546"/>
       <c r="U24" s="547"/>
       <c r="V24" s="548"/>
       <c r="W24" s="549" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X24" s="550"/>
       <c r="Y24" s="551"/>
@@ -17259,138 +17306,138 @@
       <c r="AA24" s="553"/>
       <c r="AB24" s="554"/>
       <c r="AC24" s="555"/>
-      <c r="AD24" s="3924" t="s">
-        <v>78</v>
+      <c r="AD24" s="3936" t="s">
+        <v>81</v>
       </c>
       <c r="AE24" s="557"/>
-      <c r="AF24" s="3925" t="s">
-        <v>78</v>
+      <c r="AF24" s="3937" t="s">
+        <v>81</v>
       </c>
       <c r="AG24" s="559"/>
-      <c r="AH24" s="3926" t="s">
-        <v>78</v>
+      <c r="AH24" s="3938" t="s">
+        <v>81</v>
       </c>
       <c r="AI24" s="561"/>
-      <c r="AJ24" s="3927" t="s">
-        <v>78</v>
+      <c r="AJ24" s="3939" t="s">
+        <v>81</v>
       </c>
       <c r="AK24" s="563"/>
-      <c r="AL24" s="3928" t="s">
-        <v>78</v>
+      <c r="AL24" s="3940" t="s">
+        <v>81</v>
       </c>
       <c r="AM24" s="565"/>
-      <c r="AN24" s="3929" t="s">
-        <v>78</v>
+      <c r="AN24" s="3941" t="s">
+        <v>81</v>
       </c>
       <c r="AO24" s="567"/>
-      <c r="AP24" s="3930" t="s">
-        <v>78</v>
+      <c r="AP24" s="3942" t="s">
+        <v>81</v>
       </c>
       <c r="AQ24" s="569"/>
-      <c r="AR24" s="3931" t="s">
-        <v>78</v>
+      <c r="AR24" s="3943" t="s">
+        <v>81</v>
       </c>
       <c r="AS24" s="571"/>
-      <c r="AT24" s="3932" t="s">
-        <v>78</v>
+      <c r="AT24" s="3944" t="s">
+        <v>81</v>
       </c>
       <c r="AU24" s="573"/>
-      <c r="AV24" s="3933" t="s">
-        <v>78</v>
+      <c r="AV24" s="3945" t="s">
+        <v>81</v>
       </c>
       <c r="AW24" s="575"/>
-      <c r="AX24" s="3934" t="s">
-        <v>78</v>
+      <c r="AX24" s="3946" t="s">
+        <v>81</v>
       </c>
       <c r="AY24" s="577"/>
-      <c r="AZ24" s="3935" t="s">
-        <v>78</v>
+      <c r="AZ24" s="3947" t="s">
+        <v>81</v>
       </c>
       <c r="BA24" s="579"/>
-      <c r="BB24" s="3936" t="s">
-        <v>78</v>
+      <c r="BB24" s="3948" t="s">
+        <v>81</v>
       </c>
       <c r="BC24" s="581"/>
-      <c r="BD24" s="3937" t="s">
-        <v>78</v>
+      <c r="BD24" s="3949" t="s">
+        <v>81</v>
       </c>
       <c r="BE24" s="583"/>
-      <c r="BF24" s="3938" t="s">
-        <v>78</v>
+      <c r="BF24" s="3950" t="s">
+        <v>81</v>
       </c>
       <c r="BG24" s="585"/>
       <c r="BH24" s="586" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BI24" s="587"/>
       <c r="BJ24" s="588"/>
       <c r="BK24" s="589"/>
-      <c r="BL24" s="3939" t="s">
-        <v>78</v>
+      <c r="BL24" s="3951" t="s">
+        <v>81</v>
       </c>
       <c r="BM24" s="591"/>
-      <c r="BN24" s="3940" t="s">
-        <v>78</v>
+      <c r="BN24" s="3952" t="s">
+        <v>81</v>
       </c>
       <c r="BO24" s="593"/>
-      <c r="BP24" s="3941" t="s">
-        <v>78</v>
+      <c r="BP24" s="3953" t="s">
+        <v>81</v>
       </c>
       <c r="BQ24" s="595"/>
-      <c r="BR24" s="3942" t="s">
-        <v>78</v>
+      <c r="BR24" s="3954" t="s">
+        <v>81</v>
       </c>
       <c r="BS24" s="597"/>
-      <c r="BT24" s="3943" t="s">
-        <v>78</v>
+      <c r="BT24" s="3955" t="s">
+        <v>81</v>
       </c>
       <c r="BU24" s="599"/>
-      <c r="BV24" s="3944" t="s">
-        <v>78</v>
+      <c r="BV24" s="3956" t="s">
+        <v>81</v>
       </c>
       <c r="BW24" s="601"/>
-      <c r="BX24" s="3945" t="s">
-        <v>78</v>
+      <c r="BX24" s="3957" t="s">
+        <v>81</v>
       </c>
       <c r="BY24" s="603"/>
-      <c r="BZ24" s="3946" t="s">
-        <v>78</v>
+      <c r="BZ24" s="3958" t="s">
+        <v>81</v>
       </c>
       <c r="CA24" s="605"/>
-      <c r="CB24" s="3947" t="s">
-        <v>78</v>
+      <c r="CB24" s="3959" t="s">
+        <v>81</v>
       </c>
       <c r="CC24" s="607"/>
-      <c r="CD24" s="3948" t="s">
-        <v>78</v>
+      <c r="CD24" s="3960" t="s">
+        <v>81</v>
       </c>
       <c r="CE24" s="609"/>
-      <c r="CF24" s="3949" t="s">
-        <v>78</v>
+      <c r="CF24" s="3961" t="s">
+        <v>81</v>
       </c>
       <c r="CG24" s="611"/>
-      <c r="CH24" s="3950" t="s">
-        <v>78</v>
+      <c r="CH24" s="3962" t="s">
+        <v>81</v>
       </c>
       <c r="CI24" s="613"/>
-      <c r="CJ24" s="3951" t="s">
-        <v>78</v>
+      <c r="CJ24" s="3963" t="s">
+        <v>81</v>
       </c>
       <c r="CK24" s="615"/>
-      <c r="CL24" s="3952" t="s">
-        <v>78</v>
+      <c r="CL24" s="3964" t="s">
+        <v>81</v>
       </c>
       <c r="CM24" s="617"/>
-      <c r="CN24" s="3953" t="s">
-        <v>78</v>
+      <c r="CN24" s="3965" t="s">
+        <v>81</v>
       </c>
       <c r="CO24" s="619"/>
-      <c r="CP24" s="3954" t="s">
-        <v>78</v>
+      <c r="CP24" s="3966" t="s">
+        <v>81</v>
       </c>
       <c r="CQ24" s="621"/>
       <c r="CR24" s="622" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="CS24" s="623"/>
       <c r="CT24" s="624"/>
@@ -17426,63 +17473,63 @@
       <c r="AA25" s="652"/>
       <c r="AB25" s="653"/>
       <c r="AC25" s="654"/>
-      <c r="AD25" s="3924" t="s">
+      <c r="AD25" s="3936" t="s">
         <v>62</v>
       </c>
       <c r="AE25" s="656"/>
-      <c r="AF25" s="3925" t="s">
+      <c r="AF25" s="3937" t="s">
         <v>62</v>
       </c>
       <c r="AG25" s="658"/>
-      <c r="AH25" s="3926" t="s">
+      <c r="AH25" s="3938" t="s">
         <v>62</v>
       </c>
       <c r="AI25" s="660"/>
-      <c r="AJ25" s="3927" t="s">
+      <c r="AJ25" s="3939" t="s">
         <v>62</v>
       </c>
       <c r="AK25" s="662"/>
-      <c r="AL25" s="3928" t="s">
+      <c r="AL25" s="3940" t="s">
         <v>62</v>
       </c>
       <c r="AM25" s="664"/>
-      <c r="AN25" s="3929" t="s">
+      <c r="AN25" s="3941" t="s">
         <v>62</v>
       </c>
       <c r="AO25" s="666"/>
-      <c r="AP25" s="3930" t="s">
+      <c r="AP25" s="3942" t="s">
         <v>62</v>
       </c>
       <c r="AQ25" s="668"/>
-      <c r="AR25" s="3931" t="s">
+      <c r="AR25" s="3943" t="s">
         <v>62</v>
       </c>
       <c r="AS25" s="670"/>
-      <c r="AT25" s="3932" t="s">
+      <c r="AT25" s="3944" t="s">
         <v>62</v>
       </c>
       <c r="AU25" s="672"/>
-      <c r="AV25" s="3933" t="s">
+      <c r="AV25" s="3945" t="s">
         <v>62</v>
       </c>
       <c r="AW25" s="674"/>
-      <c r="AX25" s="3934" t="s">
+      <c r="AX25" s="3946" t="s">
         <v>62</v>
       </c>
       <c r="AY25" s="676"/>
-      <c r="AZ25" s="3935" t="s">
+      <c r="AZ25" s="3947" t="s">
         <v>62</v>
       </c>
       <c r="BA25" s="678"/>
-      <c r="BB25" s="3936" t="s">
+      <c r="BB25" s="3948" t="s">
         <v>62</v>
       </c>
       <c r="BC25" s="680"/>
-      <c r="BD25" s="3937" t="s">
+      <c r="BD25" s="3949" t="s">
         <v>62</v>
       </c>
       <c r="BE25" s="682"/>
-      <c r="BF25" s="3938" t="s">
+      <c r="BF25" s="3950" t="s">
         <v>62</v>
       </c>
       <c r="BG25" s="684"/>
@@ -17490,67 +17537,67 @@
       <c r="BI25" s="686"/>
       <c r="BJ25" s="687"/>
       <c r="BK25" s="688"/>
-      <c r="BL25" s="3939" t="s">
+      <c r="BL25" s="3951" t="s">
         <v>62</v>
       </c>
       <c r="BM25" s="690"/>
-      <c r="BN25" s="3940" t="s">
+      <c r="BN25" s="3952" t="s">
         <v>62</v>
       </c>
       <c r="BO25" s="692"/>
-      <c r="BP25" s="3941" t="s">
+      <c r="BP25" s="3953" t="s">
         <v>62</v>
       </c>
       <c r="BQ25" s="694"/>
-      <c r="BR25" s="3942" t="s">
+      <c r="BR25" s="3954" t="s">
         <v>62</v>
       </c>
       <c r="BS25" s="696"/>
-      <c r="BT25" s="3943" t="s">
+      <c r="BT25" s="3955" t="s">
         <v>62</v>
       </c>
       <c r="BU25" s="698"/>
-      <c r="BV25" s="3944" t="s">
+      <c r="BV25" s="3956" t="s">
         <v>62</v>
       </c>
       <c r="BW25" s="700"/>
-      <c r="BX25" s="3945" t="s">
+      <c r="BX25" s="3957" t="s">
         <v>62</v>
       </c>
       <c r="BY25" s="702"/>
-      <c r="BZ25" s="3946" t="s">
+      <c r="BZ25" s="3958" t="s">
         <v>62</v>
       </c>
       <c r="CA25" s="704"/>
-      <c r="CB25" s="3947" t="s">
+      <c r="CB25" s="3959" t="s">
         <v>62</v>
       </c>
       <c r="CC25" s="706"/>
-      <c r="CD25" s="3948" t="s">
+      <c r="CD25" s="3960" t="s">
         <v>62</v>
       </c>
       <c r="CE25" s="708"/>
-      <c r="CF25" s="3949" t="s">
+      <c r="CF25" s="3961" t="s">
         <v>62</v>
       </c>
       <c r="CG25" s="710"/>
-      <c r="CH25" s="3950" t="s">
+      <c r="CH25" s="3962" t="s">
         <v>62</v>
       </c>
       <c r="CI25" s="712"/>
-      <c r="CJ25" s="3951" t="s">
+      <c r="CJ25" s="3963" t="s">
         <v>62</v>
       </c>
       <c r="CK25" s="714"/>
-      <c r="CL25" s="3952" t="s">
+      <c r="CL25" s="3964" t="s">
         <v>62</v>
       </c>
       <c r="CM25" s="716"/>
-      <c r="CN25" s="3953" t="s">
+      <c r="CN25" s="3965" t="s">
         <v>62</v>
       </c>
       <c r="CO25" s="718"/>
-      <c r="CP25" s="3954" t="s">
+      <c r="CP25" s="3966" t="s">
         <v>62</v>
       </c>
       <c r="CQ25" s="720"/>
@@ -17565,7 +17612,7 @@
       </c>
       <c r="B26" s="726"/>
       <c r="C26" s="727" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="728"/>
       <c r="E26" s="729"/>
@@ -17585,13 +17632,13 @@
       <c r="Q26" s="741"/>
       <c r="R26" s="742"/>
       <c r="S26" s="743" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T26" s="744"/>
       <c r="U26" s="745"/>
       <c r="V26" s="746"/>
       <c r="W26" s="747" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X26" s="748"/>
       <c r="Y26" s="749"/>
@@ -17599,7 +17646,7 @@
       <c r="AA26" s="751"/>
       <c r="AB26" s="752"/>
       <c r="AC26" s="753"/>
-      <c r="AD26" s="3955" t="s">
+      <c r="AD26" s="3967" t="s">
         <v>61</v>
       </c>
       <c r="AE26" s="755"/>
@@ -17619,28 +17666,28 @@
         <v>63</v>
       </c>
       <c r="AM26" s="763"/>
-      <c r="AN26" s="764" t="s">
-        <v>63</v>
+      <c r="AN26" s="3968" t="s">
+        <v>87</v>
       </c>
       <c r="AO26" s="765"/>
-      <c r="AP26" s="3956" t="s">
-        <v>61</v>
+      <c r="AP26" s="3969" t="s">
+        <v>87</v>
       </c>
       <c r="AQ26" s="767"/>
-      <c r="AR26" s="3957" t="s">
-        <v>61</v>
+      <c r="AR26" s="3970" t="s">
+        <v>87</v>
       </c>
       <c r="AS26" s="769"/>
-      <c r="AT26" s="770" t="s">
-        <v>63</v>
+      <c r="AT26" s="3971" t="s">
+        <v>87</v>
       </c>
       <c r="AU26" s="771"/>
-      <c r="AV26" s="772" t="s">
-        <v>63</v>
+      <c r="AV26" s="3972" t="s">
+        <v>87</v>
       </c>
       <c r="AW26" s="773"/>
-      <c r="AX26" s="774" t="s">
-        <v>63</v>
+      <c r="AX26" s="3973" t="s">
+        <v>87</v>
       </c>
       <c r="AY26" s="775"/>
       <c r="AZ26" s="776" t="s">
@@ -17651,16 +17698,16 @@
         <v>63</v>
       </c>
       <c r="BC26" s="779"/>
-      <c r="BD26" s="3958" t="s">
+      <c r="BD26" s="3974" t="s">
         <v>61</v>
       </c>
       <c r="BE26" s="781"/>
-      <c r="BF26" s="3959" t="s">
+      <c r="BF26" s="3975" t="s">
         <v>61</v>
       </c>
       <c r="BG26" s="783"/>
       <c r="BH26" s="784" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="BI26" s="785"/>
       <c r="BJ26" s="786"/>
@@ -17685,11 +17732,11 @@
         <v>63</v>
       </c>
       <c r="BU26" s="797"/>
-      <c r="BV26" s="3960" t="s">
+      <c r="BV26" s="3976" t="s">
         <v>61</v>
       </c>
       <c r="BW26" s="799"/>
-      <c r="BX26" s="3961" t="s">
+      <c r="BX26" s="3977" t="s">
         <v>61</v>
       </c>
       <c r="BY26" s="801"/>
@@ -17713,24 +17760,24 @@
         <v>63</v>
       </c>
       <c r="CI26" s="811"/>
-      <c r="CJ26" s="3962" t="s">
+      <c r="CJ26" s="3978" t="s">
         <v>61</v>
       </c>
       <c r="CK26" s="813"/>
-      <c r="CL26" s="3963" t="s">
+      <c r="CL26" s="3979" t="s">
         <v>61</v>
       </c>
       <c r="CM26" s="815"/>
-      <c r="CN26" s="3964" t="s">
-        <v>70</v>
+      <c r="CN26" s="3980" t="s">
+        <v>71</v>
       </c>
       <c r="CO26" s="817"/>
-      <c r="CP26" s="3965" t="s">
-        <v>70</v>
+      <c r="CP26" s="3981" t="s">
+        <v>71</v>
       </c>
       <c r="CQ26" s="819"/>
       <c r="CR26" s="820" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="CS26" s="821"/>
       <c r="CT26" s="822"/>
@@ -17766,7 +17813,7 @@
       <c r="AA27" s="850"/>
       <c r="AB27" s="851"/>
       <c r="AC27" s="852"/>
-      <c r="AD27" s="3955" t="s">
+      <c r="AD27" s="3967" t="s">
         <v>62</v>
       </c>
       <c r="AE27" s="854"/>
@@ -17786,28 +17833,28 @@
         <v>8.0</v>
       </c>
       <c r="AM27" s="862"/>
-      <c r="AN27" s="863" t="n">
-        <v>8.0</v>
+      <c r="AN27" s="3968" t="s">
+        <v>62</v>
       </c>
       <c r="AO27" s="864"/>
-      <c r="AP27" s="3956" t="s">
+      <c r="AP27" s="3969" t="s">
         <v>62</v>
       </c>
       <c r="AQ27" s="866"/>
-      <c r="AR27" s="3957" t="s">
+      <c r="AR27" s="3970" t="s">
         <v>62</v>
       </c>
       <c r="AS27" s="868"/>
-      <c r="AT27" s="869" t="n">
-        <v>8.0</v>
+      <c r="AT27" s="3971" t="s">
+        <v>62</v>
       </c>
       <c r="AU27" s="870"/>
-      <c r="AV27" s="871" t="n">
-        <v>8.0</v>
+      <c r="AV27" s="3972" t="s">
+        <v>62</v>
       </c>
       <c r="AW27" s="872"/>
-      <c r="AX27" s="873" t="n">
-        <v>8.0</v>
+      <c r="AX27" s="3973" t="s">
+        <v>62</v>
       </c>
       <c r="AY27" s="874"/>
       <c r="AZ27" s="875" t="n">
@@ -17818,11 +17865,11 @@
         <v>8.0</v>
       </c>
       <c r="BC27" s="878"/>
-      <c r="BD27" s="3958" t="s">
+      <c r="BD27" s="3974" t="s">
         <v>62</v>
       </c>
       <c r="BE27" s="880"/>
-      <c r="BF27" s="3959" t="s">
+      <c r="BF27" s="3975" t="s">
         <v>62</v>
       </c>
       <c r="BG27" s="882"/>
@@ -17850,11 +17897,11 @@
         <v>8.0</v>
       </c>
       <c r="BU27" s="896"/>
-      <c r="BV27" s="3960" t="s">
+      <c r="BV27" s="3976" t="s">
         <v>62</v>
       </c>
       <c r="BW27" s="898"/>
-      <c r="BX27" s="3961" t="s">
+      <c r="BX27" s="3977" t="s">
         <v>62</v>
       </c>
       <c r="BY27" s="900"/>
@@ -17878,19 +17925,19 @@
         <v>8.0</v>
       </c>
       <c r="CI27" s="910"/>
-      <c r="CJ27" s="3962" t="s">
+      <c r="CJ27" s="3978" t="s">
         <v>62</v>
       </c>
       <c r="CK27" s="912"/>
-      <c r="CL27" s="3963" t="s">
+      <c r="CL27" s="3979" t="s">
         <v>62</v>
       </c>
       <c r="CM27" s="914"/>
-      <c r="CN27" s="3964" t="s">
+      <c r="CN27" s="3980" t="s">
         <v>62</v>
       </c>
       <c r="CO27" s="916"/>
-      <c r="CP27" s="3965" t="s">
+      <c r="CP27" s="3981" t="s">
         <v>62</v>
       </c>
       <c r="CQ27" s="918"/>
@@ -17905,7 +17952,7 @@
       </c>
       <c r="B28" s="924"/>
       <c r="C28" s="925" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D28" s="926"/>
       <c r="E28" s="927"/>
@@ -17925,13 +17972,13 @@
       <c r="Q28" s="939"/>
       <c r="R28" s="940"/>
       <c r="S28" s="941" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="T28" s="942"/>
       <c r="U28" s="943"/>
       <c r="V28" s="944"/>
       <c r="W28" s="945" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X28" s="946"/>
       <c r="Y28" s="947"/>
@@ -17939,7 +17986,7 @@
       <c r="AA28" s="949"/>
       <c r="AB28" s="950"/>
       <c r="AC28" s="951"/>
-      <c r="AD28" s="3966" t="s">
+      <c r="AD28" s="3982" t="s">
         <v>61</v>
       </c>
       <c r="AE28" s="953"/>
@@ -17963,11 +18010,11 @@
         <v>63</v>
       </c>
       <c r="AO28" s="963"/>
-      <c r="AP28" s="3967" t="s">
+      <c r="AP28" s="3983" t="s">
         <v>61</v>
       </c>
       <c r="AQ28" s="965"/>
-      <c r="AR28" s="3968" t="s">
+      <c r="AR28" s="3984" t="s">
         <v>61</v>
       </c>
       <c r="AS28" s="967"/>
@@ -17991,11 +18038,11 @@
         <v>63</v>
       </c>
       <c r="BC28" s="977"/>
-      <c r="BD28" s="3969" t="s">
+      <c r="BD28" s="3985" t="s">
         <v>61</v>
       </c>
       <c r="BE28" s="979"/>
-      <c r="BF28" s="3970" t="s">
+      <c r="BF28" s="3986" t="s">
         <v>61</v>
       </c>
       <c r="BG28" s="981"/>
@@ -18025,11 +18072,11 @@
         <v>63</v>
       </c>
       <c r="BU28" s="995"/>
-      <c r="BV28" s="3971" t="s">
+      <c r="BV28" s="3987" t="s">
         <v>61</v>
       </c>
       <c r="BW28" s="997"/>
-      <c r="BX28" s="3972" t="s">
+      <c r="BX28" s="3988" t="s">
         <v>61</v>
       </c>
       <c r="BY28" s="999"/>
@@ -18053,11 +18100,11 @@
         <v>63</v>
       </c>
       <c r="CI28" s="1009"/>
-      <c r="CJ28" s="3973" t="s">
+      <c r="CJ28" s="3989" t="s">
         <v>61</v>
       </c>
       <c r="CK28" s="1011"/>
-      <c r="CL28" s="3974" t="s">
+      <c r="CL28" s="3990" t="s">
         <v>61</v>
       </c>
       <c r="CM28" s="1013"/>
@@ -18106,7 +18153,7 @@
       <c r="AA29" s="1048"/>
       <c r="AB29" s="1049"/>
       <c r="AC29" s="1050"/>
-      <c r="AD29" s="3966" t="s">
+      <c r="AD29" s="3982" t="s">
         <v>62</v>
       </c>
       <c r="AE29" s="1052"/>
@@ -18130,11 +18177,11 @@
         <v>8.0</v>
       </c>
       <c r="AO29" s="1062"/>
-      <c r="AP29" s="3967" t="s">
+      <c r="AP29" s="3983" t="s">
         <v>62</v>
       </c>
       <c r="AQ29" s="1064"/>
-      <c r="AR29" s="3968" t="s">
+      <c r="AR29" s="3984" t="s">
         <v>62</v>
       </c>
       <c r="AS29" s="1066"/>
@@ -18158,11 +18205,11 @@
         <v>8.0</v>
       </c>
       <c r="BC29" s="1076"/>
-      <c r="BD29" s="3969" t="s">
+      <c r="BD29" s="3985" t="s">
         <v>62</v>
       </c>
       <c r="BE29" s="1078"/>
-      <c r="BF29" s="3970" t="s">
+      <c r="BF29" s="3986" t="s">
         <v>62</v>
       </c>
       <c r="BG29" s="1080"/>
@@ -18190,11 +18237,11 @@
         <v>8.0</v>
       </c>
       <c r="BU29" s="1094"/>
-      <c r="BV29" s="3971" t="s">
+      <c r="BV29" s="3987" t="s">
         <v>62</v>
       </c>
       <c r="BW29" s="1096"/>
-      <c r="BX29" s="3972" t="s">
+      <c r="BX29" s="3988" t="s">
         <v>62</v>
       </c>
       <c r="BY29" s="1098"/>
@@ -18218,11 +18265,11 @@
         <v>8.0</v>
       </c>
       <c r="CI29" s="1108"/>
-      <c r="CJ29" s="3973" t="s">
+      <c r="CJ29" s="3989" t="s">
         <v>62</v>
       </c>
       <c r="CK29" s="1110"/>
-      <c r="CL29" s="3974" t="s">
+      <c r="CL29" s="3990" t="s">
         <v>62</v>
       </c>
       <c r="CM29" s="1112"/>
@@ -18245,7 +18292,7 @@
       </c>
       <c r="B30" s="1122"/>
       <c r="C30" s="1123" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1124"/>
       <c r="E30" s="1125"/>
@@ -18265,13 +18312,13 @@
       <c r="Q30" s="1137"/>
       <c r="R30" s="1138"/>
       <c r="S30" s="1139" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="T30" s="1140"/>
       <c r="U30" s="1141"/>
       <c r="V30" s="1142"/>
       <c r="W30" s="1143" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X30" s="1144"/>
       <c r="Y30" s="1145"/>
@@ -18279,7 +18326,7 @@
       <c r="AA30" s="1147"/>
       <c r="AB30" s="1148"/>
       <c r="AC30" s="1149"/>
-      <c r="AD30" s="3975" t="s">
+      <c r="AD30" s="3991" t="s">
         <v>61</v>
       </c>
       <c r="AE30" s="1151"/>
@@ -18303,11 +18350,11 @@
         <v>63</v>
       </c>
       <c r="AO30" s="1161"/>
-      <c r="AP30" s="3976" t="s">
+      <c r="AP30" s="3992" t="s">
         <v>61</v>
       </c>
       <c r="AQ30" s="1163"/>
-      <c r="AR30" s="3977" t="s">
+      <c r="AR30" s="3993" t="s">
         <v>61</v>
       </c>
       <c r="AS30" s="1165"/>
@@ -18331,11 +18378,11 @@
         <v>63</v>
       </c>
       <c r="BC30" s="1175"/>
-      <c r="BD30" s="3978" t="s">
+      <c r="BD30" s="3994" t="s">
         <v>61</v>
       </c>
       <c r="BE30" s="1177"/>
-      <c r="BF30" s="3979" t="s">
+      <c r="BF30" s="3995" t="s">
         <v>61</v>
       </c>
       <c r="BG30" s="1179"/>
@@ -18365,11 +18412,11 @@
         <v>63</v>
       </c>
       <c r="BU30" s="1193"/>
-      <c r="BV30" s="3980" t="s">
+      <c r="BV30" s="3996" t="s">
         <v>61</v>
       </c>
       <c r="BW30" s="1195"/>
-      <c r="BX30" s="3981" t="s">
+      <c r="BX30" s="3997" t="s">
         <v>61</v>
       </c>
       <c r="BY30" s="1197"/>
@@ -18393,24 +18440,24 @@
         <v>63</v>
       </c>
       <c r="CI30" s="1207"/>
-      <c r="CJ30" s="3982" t="s">
+      <c r="CJ30" s="3998" t="s">
         <v>61</v>
       </c>
       <c r="CK30" s="1209"/>
-      <c r="CL30" s="3983" t="s">
+      <c r="CL30" s="3999" t="s">
         <v>61</v>
       </c>
       <c r="CM30" s="1211"/>
-      <c r="CN30" s="3984" t="s">
-        <v>70</v>
+      <c r="CN30" s="4000" t="s">
+        <v>71</v>
       </c>
       <c r="CO30" s="1213"/>
-      <c r="CP30" s="3985" t="s">
-        <v>70</v>
+      <c r="CP30" s="4001" t="s">
+        <v>71</v>
       </c>
       <c r="CQ30" s="1215"/>
       <c r="CR30" s="1216" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS30" s="1217"/>
       <c r="CT30" s="1218"/>
@@ -18446,7 +18493,7 @@
       <c r="AA31" s="1246"/>
       <c r="AB31" s="1247"/>
       <c r="AC31" s="1248"/>
-      <c r="AD31" s="3975" t="s">
+      <c r="AD31" s="3991" t="s">
         <v>62</v>
       </c>
       <c r="AE31" s="1250"/>
@@ -18470,11 +18517,11 @@
         <v>8.0</v>
       </c>
       <c r="AO31" s="1260"/>
-      <c r="AP31" s="3976" t="s">
+      <c r="AP31" s="3992" t="s">
         <v>62</v>
       </c>
       <c r="AQ31" s="1262"/>
-      <c r="AR31" s="3977" t="s">
+      <c r="AR31" s="3993" t="s">
         <v>62</v>
       </c>
       <c r="AS31" s="1264"/>
@@ -18498,11 +18545,11 @@
         <v>8.0</v>
       </c>
       <c r="BC31" s="1274"/>
-      <c r="BD31" s="3978" t="s">
+      <c r="BD31" s="3994" t="s">
         <v>62</v>
       </c>
       <c r="BE31" s="1276"/>
-      <c r="BF31" s="3979" t="s">
+      <c r="BF31" s="3995" t="s">
         <v>62</v>
       </c>
       <c r="BG31" s="1278"/>
@@ -18530,11 +18577,11 @@
         <v>8.0</v>
       </c>
       <c r="BU31" s="1292"/>
-      <c r="BV31" s="3980" t="s">
+      <c r="BV31" s="3996" t="s">
         <v>62</v>
       </c>
       <c r="BW31" s="1294"/>
-      <c r="BX31" s="3981" t="s">
+      <c r="BX31" s="3997" t="s">
         <v>62</v>
       </c>
       <c r="BY31" s="1296"/>
@@ -18558,19 +18605,19 @@
         <v>8.0</v>
       </c>
       <c r="CI31" s="1306"/>
-      <c r="CJ31" s="3982" t="s">
+      <c r="CJ31" s="3998" t="s">
         <v>62</v>
       </c>
       <c r="CK31" s="1308"/>
-      <c r="CL31" s="3983" t="s">
+      <c r="CL31" s="3999" t="s">
         <v>62</v>
       </c>
       <c r="CM31" s="1310"/>
-      <c r="CN31" s="3984" t="s">
+      <c r="CN31" s="4000" t="s">
         <v>62</v>
       </c>
       <c r="CO31" s="1312"/>
-      <c r="CP31" s="3985" t="s">
+      <c r="CP31" s="4001" t="s">
         <v>62</v>
       </c>
       <c r="CQ31" s="1314"/>
@@ -18585,7 +18632,7 @@
       </c>
       <c r="B32" s="1320"/>
       <c r="C32" s="1321" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1322"/>
       <c r="E32" s="1323"/>
@@ -18605,13 +18652,13 @@
       <c r="Q32" s="1335"/>
       <c r="R32" s="1336"/>
       <c r="S32" s="1337" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T32" s="1338"/>
       <c r="U32" s="1339"/>
       <c r="V32" s="1340"/>
       <c r="W32" s="1341" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X32" s="1342"/>
       <c r="Y32" s="1343"/>
@@ -18619,7 +18666,7 @@
       <c r="AA32" s="1345"/>
       <c r="AB32" s="1346"/>
       <c r="AC32" s="1347"/>
-      <c r="AD32" s="3986" t="s">
+      <c r="AD32" s="4002" t="s">
         <v>61</v>
       </c>
       <c r="AE32" s="1349"/>
@@ -18643,11 +18690,11 @@
         <v>63</v>
       </c>
       <c r="AO32" s="1359"/>
-      <c r="AP32" s="3987" t="s">
+      <c r="AP32" s="4003" t="s">
         <v>61</v>
       </c>
       <c r="AQ32" s="1361"/>
-      <c r="AR32" s="3988" t="s">
+      <c r="AR32" s="4004" t="s">
         <v>61</v>
       </c>
       <c r="AS32" s="1363"/>
@@ -18671,11 +18718,11 @@
         <v>63</v>
       </c>
       <c r="BC32" s="1373"/>
-      <c r="BD32" s="3989" t="s">
+      <c r="BD32" s="4005" t="s">
         <v>61</v>
       </c>
       <c r="BE32" s="1375"/>
-      <c r="BF32" s="3990" t="s">
+      <c r="BF32" s="4006" t="s">
         <v>61</v>
       </c>
       <c r="BG32" s="1377"/>
@@ -18705,11 +18752,11 @@
         <v>63</v>
       </c>
       <c r="BU32" s="1391"/>
-      <c r="BV32" s="3991" t="s">
+      <c r="BV32" s="4007" t="s">
         <v>61</v>
       </c>
       <c r="BW32" s="1393"/>
-      <c r="BX32" s="3992" t="s">
+      <c r="BX32" s="4008" t="s">
         <v>61</v>
       </c>
       <c r="BY32" s="1395"/>
@@ -18733,24 +18780,24 @@
         <v>63</v>
       </c>
       <c r="CI32" s="1405"/>
-      <c r="CJ32" s="3993" t="s">
+      <c r="CJ32" s="4009" t="s">
         <v>61</v>
       </c>
       <c r="CK32" s="1407"/>
-      <c r="CL32" s="3994" t="s">
+      <c r="CL32" s="4010" t="s">
         <v>61</v>
       </c>
       <c r="CM32" s="1409"/>
-      <c r="CN32" s="3995" t="s">
-        <v>70</v>
+      <c r="CN32" s="4011" t="s">
+        <v>71</v>
       </c>
       <c r="CO32" s="1411"/>
-      <c r="CP32" s="3996" t="s">
-        <v>70</v>
+      <c r="CP32" s="4012" t="s">
+        <v>71</v>
       </c>
       <c r="CQ32" s="1413"/>
       <c r="CR32" s="1414" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS32" s="1415"/>
       <c r="CT32" s="1416"/>
@@ -18786,7 +18833,7 @@
       <c r="AA33" s="1444"/>
       <c r="AB33" s="1445"/>
       <c r="AC33" s="1446"/>
-      <c r="AD33" s="3986" t="s">
+      <c r="AD33" s="4002" t="s">
         <v>62</v>
       </c>
       <c r="AE33" s="1448"/>
@@ -18810,11 +18857,11 @@
         <v>4.0</v>
       </c>
       <c r="AO33" s="1458"/>
-      <c r="AP33" s="3987" t="s">
+      <c r="AP33" s="4003" t="s">
         <v>62</v>
       </c>
       <c r="AQ33" s="1460"/>
-      <c r="AR33" s="3988" t="s">
+      <c r="AR33" s="4004" t="s">
         <v>62</v>
       </c>
       <c r="AS33" s="1462"/>
@@ -18838,11 +18885,11 @@
         <v>4.0</v>
       </c>
       <c r="BC33" s="1472"/>
-      <c r="BD33" s="3989" t="s">
+      <c r="BD33" s="4005" t="s">
         <v>62</v>
       </c>
       <c r="BE33" s="1474"/>
-      <c r="BF33" s="3990" t="s">
+      <c r="BF33" s="4006" t="s">
         <v>62</v>
       </c>
       <c r="BG33" s="1476"/>
@@ -18870,11 +18917,11 @@
         <v>4.0</v>
       </c>
       <c r="BU33" s="1490"/>
-      <c r="BV33" s="3991" t="s">
+      <c r="BV33" s="4007" t="s">
         <v>62</v>
       </c>
       <c r="BW33" s="1492"/>
-      <c r="BX33" s="3992" t="s">
+      <c r="BX33" s="4008" t="s">
         <v>62</v>
       </c>
       <c r="BY33" s="1494"/>
@@ -18898,19 +18945,19 @@
         <v>4.0</v>
       </c>
       <c r="CI33" s="1504"/>
-      <c r="CJ33" s="3993" t="s">
+      <c r="CJ33" s="4009" t="s">
         <v>62</v>
       </c>
       <c r="CK33" s="1506"/>
-      <c r="CL33" s="3994" t="s">
+      <c r="CL33" s="4010" t="s">
         <v>62</v>
       </c>
       <c r="CM33" s="1508"/>
-      <c r="CN33" s="3995" t="s">
+      <c r="CN33" s="4011" t="s">
         <v>62</v>
       </c>
       <c r="CO33" s="1510"/>
-      <c r="CP33" s="3996" t="s">
+      <c r="CP33" s="4012" t="s">
         <v>62</v>
       </c>
       <c r="CQ33" s="1512"/>
@@ -18925,7 +18972,7 @@
       </c>
       <c r="B34" s="1518"/>
       <c r="C34" s="1519" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1520"/>
       <c r="E34" s="1521"/>
@@ -18945,13 +18992,13 @@
       <c r="Q34" s="1533"/>
       <c r="R34" s="1534"/>
       <c r="S34" s="1535" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T34" s="1536"/>
       <c r="U34" s="1537"/>
       <c r="V34" s="1538"/>
       <c r="W34" s="1539" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X34" s="1540"/>
       <c r="Y34" s="1541"/>
@@ -18959,7 +19006,7 @@
       <c r="AA34" s="1543"/>
       <c r="AB34" s="1544"/>
       <c r="AC34" s="1545"/>
-      <c r="AD34" s="3997" t="s">
+      <c r="AD34" s="4013" t="s">
         <v>61</v>
       </c>
       <c r="AE34" s="1547"/>
@@ -18983,11 +19030,11 @@
         <v>63</v>
       </c>
       <c r="AO34" s="1557"/>
-      <c r="AP34" s="3998" t="s">
+      <c r="AP34" s="4014" t="s">
         <v>61</v>
       </c>
       <c r="AQ34" s="1559"/>
-      <c r="AR34" s="3999" t="s">
+      <c r="AR34" s="4015" t="s">
         <v>61</v>
       </c>
       <c r="AS34" s="1561"/>
@@ -19011,11 +19058,11 @@
         <v>63</v>
       </c>
       <c r="BC34" s="1571"/>
-      <c r="BD34" s="4000" t="s">
+      <c r="BD34" s="4016" t="s">
         <v>61</v>
       </c>
       <c r="BE34" s="1573"/>
-      <c r="BF34" s="4001" t="s">
+      <c r="BF34" s="4017" t="s">
         <v>61</v>
       </c>
       <c r="BG34" s="1575"/>
@@ -19045,11 +19092,11 @@
         <v>63</v>
       </c>
       <c r="BU34" s="1589"/>
-      <c r="BV34" s="4002" t="s">
+      <c r="BV34" s="4018" t="s">
         <v>61</v>
       </c>
       <c r="BW34" s="1591"/>
-      <c r="BX34" s="4003" t="s">
+      <c r="BX34" s="4019" t="s">
         <v>61</v>
       </c>
       <c r="BY34" s="1593"/>
@@ -19073,24 +19120,24 @@
         <v>63</v>
       </c>
       <c r="CI34" s="1603"/>
-      <c r="CJ34" s="4004" t="s">
+      <c r="CJ34" s="4020" t="s">
         <v>61</v>
       </c>
       <c r="CK34" s="1605"/>
-      <c r="CL34" s="4005" t="s">
+      <c r="CL34" s="4021" t="s">
         <v>61</v>
       </c>
       <c r="CM34" s="1607"/>
-      <c r="CN34" s="4006" t="s">
-        <v>70</v>
+      <c r="CN34" s="4022" t="s">
+        <v>71</v>
       </c>
       <c r="CO34" s="1609"/>
-      <c r="CP34" s="4007" t="s">
-        <v>70</v>
+      <c r="CP34" s="4023" t="s">
+        <v>71</v>
       </c>
       <c r="CQ34" s="1611"/>
       <c r="CR34" s="1612" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS34" s="1613"/>
       <c r="CT34" s="1614"/>
@@ -19126,7 +19173,7 @@
       <c r="AA35" s="1642"/>
       <c r="AB35" s="1643"/>
       <c r="AC35" s="1644"/>
-      <c r="AD35" s="3997" t="s">
+      <c r="AD35" s="4013" t="s">
         <v>62</v>
       </c>
       <c r="AE35" s="1646"/>
@@ -19150,11 +19197,11 @@
         <v>8.0</v>
       </c>
       <c r="AO35" s="1656"/>
-      <c r="AP35" s="3998" t="s">
+      <c r="AP35" s="4014" t="s">
         <v>62</v>
       </c>
       <c r="AQ35" s="1658"/>
-      <c r="AR35" s="3999" t="s">
+      <c r="AR35" s="4015" t="s">
         <v>62</v>
       </c>
       <c r="AS35" s="1660"/>
@@ -19178,11 +19225,11 @@
         <v>8.0</v>
       </c>
       <c r="BC35" s="1670"/>
-      <c r="BD35" s="4000" t="s">
+      <c r="BD35" s="4016" t="s">
         <v>62</v>
       </c>
       <c r="BE35" s="1672"/>
-      <c r="BF35" s="4001" t="s">
+      <c r="BF35" s="4017" t="s">
         <v>62</v>
       </c>
       <c r="BG35" s="1674"/>
@@ -19210,11 +19257,11 @@
         <v>8.0</v>
       </c>
       <c r="BU35" s="1688"/>
-      <c r="BV35" s="4002" t="s">
+      <c r="BV35" s="4018" t="s">
         <v>62</v>
       </c>
       <c r="BW35" s="1690"/>
-      <c r="BX35" s="4003" t="s">
+      <c r="BX35" s="4019" t="s">
         <v>62</v>
       </c>
       <c r="BY35" s="1692"/>
@@ -19238,19 +19285,19 @@
         <v>8.0</v>
       </c>
       <c r="CI35" s="1702"/>
-      <c r="CJ35" s="4004" t="s">
+      <c r="CJ35" s="4020" t="s">
         <v>62</v>
       </c>
       <c r="CK35" s="1704"/>
-      <c r="CL35" s="4005" t="s">
+      <c r="CL35" s="4021" t="s">
         <v>62</v>
       </c>
       <c r="CM35" s="1706"/>
-      <c r="CN35" s="4006" t="s">
+      <c r="CN35" s="4022" t="s">
         <v>62</v>
       </c>
       <c r="CO35" s="1708"/>
-      <c r="CP35" s="4007" t="s">
+      <c r="CP35" s="4023" t="s">
         <v>62</v>
       </c>
       <c r="CQ35" s="1710"/>
@@ -19265,7 +19312,7 @@
       </c>
       <c r="B36" s="1716"/>
       <c r="C36" s="1717" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1718"/>
       <c r="E36" s="1719"/>
@@ -19285,7 +19332,7 @@
       <c r="Q36" s="1731"/>
       <c r="R36" s="1732"/>
       <c r="S36" s="1733" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="T36" s="1734"/>
       <c r="U36" s="1735"/>
@@ -19299,7 +19346,7 @@
       <c r="AA36" s="1741"/>
       <c r="AB36" s="1742"/>
       <c r="AC36" s="1743"/>
-      <c r="AD36" s="4008" t="s">
+      <c r="AD36" s="4024" t="s">
         <v>61</v>
       </c>
       <c r="AE36" s="1745"/>
@@ -19323,11 +19370,11 @@
         <v>63</v>
       </c>
       <c r="AO36" s="1755"/>
-      <c r="AP36" s="4009" t="s">
+      <c r="AP36" s="4025" t="s">
         <v>61</v>
       </c>
       <c r="AQ36" s="1757"/>
-      <c r="AR36" s="4010" t="s">
+      <c r="AR36" s="4026" t="s">
         <v>61</v>
       </c>
       <c r="AS36" s="1759"/>
@@ -19351,11 +19398,11 @@
         <v>63</v>
       </c>
       <c r="BC36" s="1769"/>
-      <c r="BD36" s="4011" t="s">
+      <c r="BD36" s="4027" t="s">
         <v>61</v>
       </c>
       <c r="BE36" s="1771"/>
-      <c r="BF36" s="4012" t="s">
+      <c r="BF36" s="4028" t="s">
         <v>61</v>
       </c>
       <c r="BG36" s="1773"/>
@@ -19385,11 +19432,11 @@
         <v>63</v>
       </c>
       <c r="BU36" s="1787"/>
-      <c r="BV36" s="4013" t="s">
+      <c r="BV36" s="4029" t="s">
         <v>61</v>
       </c>
       <c r="BW36" s="1789"/>
-      <c r="BX36" s="4014" t="s">
+      <c r="BX36" s="4030" t="s">
         <v>61</v>
       </c>
       <c r="BY36" s="1791"/>
@@ -19413,24 +19460,24 @@
         <v>63</v>
       </c>
       <c r="CI36" s="1801"/>
-      <c r="CJ36" s="4015" t="s">
+      <c r="CJ36" s="4031" t="s">
         <v>61</v>
       </c>
       <c r="CK36" s="1803"/>
-      <c r="CL36" s="4016" t="s">
+      <c r="CL36" s="4032" t="s">
         <v>61</v>
       </c>
       <c r="CM36" s="1805"/>
-      <c r="CN36" s="4017" t="s">
-        <v>70</v>
+      <c r="CN36" s="4033" t="s">
+        <v>71</v>
       </c>
       <c r="CO36" s="1807"/>
-      <c r="CP36" s="4018" t="s">
-        <v>70</v>
+      <c r="CP36" s="4034" t="s">
+        <v>71</v>
       </c>
       <c r="CQ36" s="1809"/>
       <c r="CR36" s="1810" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS36" s="1811"/>
       <c r="CT36" s="1812"/>
@@ -19466,7 +19513,7 @@
       <c r="AA37" s="1840"/>
       <c r="AB37" s="1841"/>
       <c r="AC37" s="1842"/>
-      <c r="AD37" s="4008" t="s">
+      <c r="AD37" s="4024" t="s">
         <v>62</v>
       </c>
       <c r="AE37" s="1844"/>
@@ -19490,11 +19537,11 @@
         <v>4.0</v>
       </c>
       <c r="AO37" s="1854"/>
-      <c r="AP37" s="4009" t="s">
+      <c r="AP37" s="4025" t="s">
         <v>62</v>
       </c>
       <c r="AQ37" s="1856"/>
-      <c r="AR37" s="4010" t="s">
+      <c r="AR37" s="4026" t="s">
         <v>62</v>
       </c>
       <c r="AS37" s="1858"/>
@@ -19518,11 +19565,11 @@
         <v>4.0</v>
       </c>
       <c r="BC37" s="1868"/>
-      <c r="BD37" s="4011" t="s">
+      <c r="BD37" s="4027" t="s">
         <v>62</v>
       </c>
       <c r="BE37" s="1870"/>
-      <c r="BF37" s="4012" t="s">
+      <c r="BF37" s="4028" t="s">
         <v>62</v>
       </c>
       <c r="BG37" s="1872"/>
@@ -19550,11 +19597,11 @@
         <v>4.0</v>
       </c>
       <c r="BU37" s="1886"/>
-      <c r="BV37" s="4013" t="s">
+      <c r="BV37" s="4029" t="s">
         <v>62</v>
       </c>
       <c r="BW37" s="1888"/>
-      <c r="BX37" s="4014" t="s">
+      <c r="BX37" s="4030" t="s">
         <v>62</v>
       </c>
       <c r="BY37" s="1890"/>
@@ -19578,19 +19625,19 @@
         <v>4.0</v>
       </c>
       <c r="CI37" s="1900"/>
-      <c r="CJ37" s="4015" t="s">
+      <c r="CJ37" s="4031" t="s">
         <v>62</v>
       </c>
       <c r="CK37" s="1902"/>
-      <c r="CL37" s="4016" t="s">
+      <c r="CL37" s="4032" t="s">
         <v>62</v>
       </c>
       <c r="CM37" s="1904"/>
-      <c r="CN37" s="4017" t="s">
+      <c r="CN37" s="4033" t="s">
         <v>62</v>
       </c>
       <c r="CO37" s="1906"/>
-      <c r="CP37" s="4018" t="s">
+      <c r="CP37" s="4034" t="s">
         <v>62</v>
       </c>
       <c r="CQ37" s="1908"/>
@@ -19605,7 +19652,7 @@
       </c>
       <c r="B38" s="1914"/>
       <c r="C38" s="1915" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1916"/>
       <c r="E38" s="1917"/>
@@ -19625,13 +19672,13 @@
       <c r="Q38" s="1929"/>
       <c r="R38" s="1930"/>
       <c r="S38" s="1931" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="T38" s="1932"/>
       <c r="U38" s="1933"/>
       <c r="V38" s="1934"/>
       <c r="W38" s="1935" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X38" s="1936"/>
       <c r="Y38" s="1937"/>
@@ -19639,12 +19686,12 @@
       <c r="AA38" s="1939"/>
       <c r="AB38" s="1940"/>
       <c r="AC38" s="1941"/>
-      <c r="AD38" s="4019" t="s">
-        <v>70</v>
+      <c r="AD38" s="4035" t="s">
+        <v>71</v>
       </c>
       <c r="AE38" s="1943"/>
-      <c r="AF38" s="1944" t="s">
-        <v>63</v>
+      <c r="AF38" s="4036" t="s">
+        <v>71</v>
       </c>
       <c r="AG38" s="1945"/>
       <c r="AH38" s="1946" t="s">
@@ -19663,11 +19710,11 @@
         <v>63</v>
       </c>
       <c r="AO38" s="1953"/>
-      <c r="AP38" s="4020" t="s">
+      <c r="AP38" s="4037" t="s">
         <v>61</v>
       </c>
       <c r="AQ38" s="1955"/>
-      <c r="AR38" s="4021" t="s">
+      <c r="AR38" s="4038" t="s">
         <v>61</v>
       </c>
       <c r="AS38" s="1957"/>
@@ -19691,16 +19738,16 @@
         <v>63</v>
       </c>
       <c r="BC38" s="1967"/>
-      <c r="BD38" s="4022" t="s">
+      <c r="BD38" s="4039" t="s">
         <v>61</v>
       </c>
       <c r="BE38" s="1969"/>
-      <c r="BF38" s="4023" t="s">
+      <c r="BF38" s="4040" t="s">
         <v>61</v>
       </c>
       <c r="BG38" s="1971"/>
       <c r="BH38" s="1972" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="BI38" s="1973"/>
       <c r="BJ38" s="1974"/>
@@ -19725,11 +19772,11 @@
         <v>63</v>
       </c>
       <c r="BU38" s="1985"/>
-      <c r="BV38" s="4024" t="s">
+      <c r="BV38" s="4041" t="s">
         <v>61</v>
       </c>
       <c r="BW38" s="1987"/>
-      <c r="BX38" s="4025" t="s">
+      <c r="BX38" s="4042" t="s">
         <v>61</v>
       </c>
       <c r="BY38" s="1989"/>
@@ -19753,11 +19800,11 @@
         <v>63</v>
       </c>
       <c r="CI38" s="1999"/>
-      <c r="CJ38" s="4026" t="s">
+      <c r="CJ38" s="4043" t="s">
         <v>61</v>
       </c>
       <c r="CK38" s="2001"/>
-      <c r="CL38" s="4027" t="s">
+      <c r="CL38" s="4044" t="s">
         <v>61</v>
       </c>
       <c r="CM38" s="2003"/>
@@ -19770,7 +19817,7 @@
       </c>
       <c r="CQ38" s="2007"/>
       <c r="CR38" s="2008" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="CS38" s="2009"/>
       <c r="CT38" s="2010"/>
@@ -19806,12 +19853,12 @@
       <c r="AA39" s="2038"/>
       <c r="AB39" s="2039"/>
       <c r="AC39" s="2040"/>
-      <c r="AD39" s="4019" t="s">
+      <c r="AD39" s="4035" t="s">
         <v>62</v>
       </c>
       <c r="AE39" s="2042"/>
-      <c r="AF39" s="2043" t="n">
-        <v>8.0</v>
+      <c r="AF39" s="4036" t="s">
+        <v>62</v>
       </c>
       <c r="AG39" s="2044"/>
       <c r="AH39" s="2045" t="n">
@@ -19830,11 +19877,11 @@
         <v>8.0</v>
       </c>
       <c r="AO39" s="2052"/>
-      <c r="AP39" s="4020" t="s">
+      <c r="AP39" s="4037" t="s">
         <v>62</v>
       </c>
       <c r="AQ39" s="2054"/>
-      <c r="AR39" s="4021" t="s">
+      <c r="AR39" s="4038" t="s">
         <v>62</v>
       </c>
       <c r="AS39" s="2056"/>
@@ -19858,11 +19905,11 @@
         <v>8.0</v>
       </c>
       <c r="BC39" s="2066"/>
-      <c r="BD39" s="4022" t="s">
+      <c r="BD39" s="4039" t="s">
         <v>62</v>
       </c>
       <c r="BE39" s="2068"/>
-      <c r="BF39" s="4023" t="s">
+      <c r="BF39" s="4040" t="s">
         <v>62</v>
       </c>
       <c r="BG39" s="2070"/>
@@ -19890,11 +19937,11 @@
         <v>8.0</v>
       </c>
       <c r="BU39" s="2084"/>
-      <c r="BV39" s="4024" t="s">
+      <c r="BV39" s="4041" t="s">
         <v>62</v>
       </c>
       <c r="BW39" s="2086"/>
-      <c r="BX39" s="4025" t="s">
+      <c r="BX39" s="4042" t="s">
         <v>62</v>
       </c>
       <c r="BY39" s="2088"/>
@@ -19918,11 +19965,11 @@
         <v>8.0</v>
       </c>
       <c r="CI39" s="2098"/>
-      <c r="CJ39" s="4026" t="s">
+      <c r="CJ39" s="4043" t="s">
         <v>62</v>
       </c>
       <c r="CK39" s="2100"/>
-      <c r="CL39" s="4027" t="s">
+      <c r="CL39" s="4044" t="s">
         <v>62</v>
       </c>
       <c r="CM39" s="2102"/>
@@ -19945,7 +19992,7 @@
       </c>
       <c r="B40" s="2112"/>
       <c r="C40" s="2113" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2114"/>
       <c r="E40" s="2115"/>
@@ -19965,7 +20012,7 @@
       <c r="Q40" s="2127"/>
       <c r="R40" s="2128"/>
       <c r="S40" s="2129" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="T40" s="2130"/>
       <c r="U40" s="2131"/>
@@ -19979,7 +20026,7 @@
       <c r="AA40" s="2137"/>
       <c r="AB40" s="2138"/>
       <c r="AC40" s="2139"/>
-      <c r="AD40" s="4028" t="s">
+      <c r="AD40" s="4045" t="s">
         <v>61</v>
       </c>
       <c r="AE40" s="2141"/>
@@ -20003,11 +20050,11 @@
         <v>63</v>
       </c>
       <c r="AO40" s="2151"/>
-      <c r="AP40" s="4029" t="s">
+      <c r="AP40" s="4046" t="s">
         <v>61</v>
       </c>
       <c r="AQ40" s="2153"/>
-      <c r="AR40" s="4030" t="s">
+      <c r="AR40" s="4047" t="s">
         <v>61</v>
       </c>
       <c r="AS40" s="2155"/>
@@ -20031,11 +20078,11 @@
         <v>63</v>
       </c>
       <c r="BC40" s="2165"/>
-      <c r="BD40" s="4031" t="s">
+      <c r="BD40" s="4048" t="s">
         <v>61</v>
       </c>
       <c r="BE40" s="2167"/>
-      <c r="BF40" s="4032" t="s">
+      <c r="BF40" s="4049" t="s">
         <v>61</v>
       </c>
       <c r="BG40" s="2169"/>
@@ -20045,242 +20092,242 @@
       <c r="BI40" s="2171"/>
       <c r="BJ40" s="2172"/>
       <c r="BK40" s="2173"/>
-      <c r="BL40" s="4033" t="s">
-        <v>70</v>
+      <c r="BL40" s="2174" t="s">
+        <v>63</v>
       </c>
       <c r="BM40" s="2175"/>
-      <c r="BN40" s="4034" t="s">
-        <v>70</v>
+      <c r="BN40" s="2176" t="s">
+        <v>63</v>
       </c>
       <c r="BO40" s="2177"/>
-      <c r="BP40" s="4035" t="s">
-        <v>70</v>
+      <c r="BP40" s="2178" t="s">
+        <v>63</v>
       </c>
       <c r="BQ40" s="2179"/>
-      <c r="BR40" s="4036" t="s">
-        <v>70</v>
+      <c r="BR40" s="2180" t="s">
+        <v>63</v>
       </c>
       <c r="BS40" s="2181"/>
-      <c r="BT40" s="4037" t="s">
-        <v>70</v>
+      <c r="BT40" s="2182" t="s">
+        <v>63</v>
       </c>
       <c r="BU40" s="2183"/>
-      <c r="BV40" s="4038" t="s">
-        <v>70</v>
+      <c r="BV40" s="4050" t="s">
+        <v>61</v>
       </c>
       <c r="BW40" s="2185"/>
-      <c r="BX40" s="4039" t="s">
-        <v>70</v>
+      <c r="BX40" s="4051" t="s">
+        <v>61</v>
       </c>
       <c r="BY40" s="2187"/>
-      <c r="BZ40" s="4040" t="s">
-        <v>70</v>
+      <c r="BZ40" s="2188" t="s">
+        <v>63</v>
       </c>
       <c r="CA40" s="2189"/>
-      <c r="CB40" s="4041" t="s">
-        <v>70</v>
+      <c r="CB40" s="2190" t="s">
+        <v>63</v>
       </c>
       <c r="CC40" s="2191"/>
-      <c r="CD40" s="4042" t="s">
-        <v>70</v>
+      <c r="CD40" s="2192" t="s">
+        <v>63</v>
       </c>
       <c r="CE40" s="2193"/>
-      <c r="CF40" s="4043" t="s">
-        <v>70</v>
+      <c r="CF40" s="2194" t="s">
+        <v>63</v>
       </c>
       <c r="CG40" s="2195"/>
-      <c r="CH40" s="4044" t="s">
-        <v>70</v>
+      <c r="CH40" s="2196" t="s">
+        <v>63</v>
       </c>
       <c r="CI40" s="2197"/>
-      <c r="CJ40" s="4045" t="s">
-        <v>70</v>
+      <c r="CJ40" s="4052" t="s">
+        <v>61</v>
       </c>
       <c r="CK40" s="2199"/>
-      <c r="CL40" s="4046" t="s">
-        <v>70</v>
+      <c r="CL40" s="4053" t="s">
+        <v>61</v>
       </c>
       <c r="CM40" s="2201"/>
-      <c r="CN40" s="4047" t="s">
-        <v>70</v>
+      <c r="CN40" s="2202" t="s">
+        <v>63</v>
       </c>
       <c r="CO40" s="2203"/>
-      <c r="CP40" s="4048" t="s">
-        <v>70</v>
+      <c r="CP40" s="2204" t="s">
+        <v>63</v>
       </c>
       <c r="CQ40" s="2205"/>
       <c r="CR40" s="2206" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="CS40" s="2207"/>
       <c r="CT40" s="2208"/>
       <c r="CU40" s="63"/>
     </row>
     <row r="41">
-      <c r="A41" s="4179"/>
-      <c r="B41" s="4180"/>
-      <c r="C41" s="4181"/>
-      <c r="D41" s="4181"/>
-      <c r="E41" s="4181"/>
-      <c r="F41" s="4181"/>
-      <c r="G41" s="4181"/>
-      <c r="H41" s="4181"/>
-      <c r="I41" s="4181"/>
-      <c r="J41" s="4181"/>
-      <c r="K41" s="4181"/>
-      <c r="L41" s="4181"/>
-      <c r="M41" s="4181"/>
-      <c r="N41" s="4181"/>
-      <c r="O41" s="4182"/>
-      <c r="P41" s="4183"/>
-      <c r="Q41" s="4183"/>
-      <c r="R41" s="4184"/>
-      <c r="S41" s="4182"/>
-      <c r="T41" s="4183"/>
-      <c r="U41" s="4183"/>
-      <c r="V41" s="4184"/>
-      <c r="W41" s="4182"/>
-      <c r="X41" s="4183"/>
-      <c r="Y41" s="4183"/>
-      <c r="Z41" s="4183"/>
-      <c r="AA41" s="4183"/>
-      <c r="AB41" s="4183"/>
-      <c r="AC41" s="4184"/>
-      <c r="AD41" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE41" s="4186"/>
-      <c r="AF41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AG41" s="4186"/>
-      <c r="AH41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AI41" s="4186"/>
-      <c r="AJ41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AK41" s="4186"/>
-      <c r="AL41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM41" s="4186"/>
-      <c r="AN41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AO41" s="4186"/>
-      <c r="AP41" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ41" s="4186"/>
-      <c r="AR41" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS41" s="4186"/>
-      <c r="AT41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AU41" s="4186"/>
-      <c r="AV41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AW41" s="4186"/>
-      <c r="AX41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AY41" s="4186"/>
-      <c r="AZ41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BA41" s="4186"/>
-      <c r="BB41" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BC41" s="4186"/>
-      <c r="BD41" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE41" s="4186"/>
-      <c r="BF41" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG41" s="4186"/>
-      <c r="BH41" s="4187"/>
-      <c r="BI41" s="4187"/>
-      <c r="BJ41" s="4187"/>
-      <c r="BK41" s="4187"/>
-      <c r="BL41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM41" s="4186"/>
-      <c r="BN41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO41" s="4186"/>
-      <c r="BP41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ41" s="4186"/>
-      <c r="BR41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS41" s="4186"/>
-      <c r="BT41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU41" s="4186"/>
-      <c r="BV41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW41" s="4186"/>
-      <c r="BX41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BY41" s="4186"/>
-      <c r="BZ41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA41" s="4186"/>
-      <c r="CB41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC41" s="4186"/>
-      <c r="CD41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE41" s="4186"/>
-      <c r="CF41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG41" s="4186"/>
-      <c r="CH41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CI41" s="4186"/>
-      <c r="CJ41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CK41" s="4186"/>
-      <c r="CL41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CM41" s="4186"/>
-      <c r="CN41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CO41" s="4186"/>
-      <c r="CP41" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ41" s="4186"/>
-      <c r="CR41" s="4187"/>
-      <c r="CS41" s="4187"/>
-      <c r="CT41" s="4187"/>
+      <c r="A41" s="4180"/>
+      <c r="B41" s="4181"/>
+      <c r="C41" s="4182"/>
+      <c r="D41" s="4182"/>
+      <c r="E41" s="4182"/>
+      <c r="F41" s="4182"/>
+      <c r="G41" s="4182"/>
+      <c r="H41" s="4182"/>
+      <c r="I41" s="4182"/>
+      <c r="J41" s="4182"/>
+      <c r="K41" s="4182"/>
+      <c r="L41" s="4182"/>
+      <c r="M41" s="4182"/>
+      <c r="N41" s="4182"/>
+      <c r="O41" s="4183"/>
+      <c r="P41" s="4184"/>
+      <c r="Q41" s="4184"/>
+      <c r="R41" s="4185"/>
+      <c r="S41" s="4183"/>
+      <c r="T41" s="4184"/>
+      <c r="U41" s="4184"/>
+      <c r="V41" s="4185"/>
+      <c r="W41" s="4183"/>
+      <c r="X41" s="4184"/>
+      <c r="Y41" s="4184"/>
+      <c r="Z41" s="4184"/>
+      <c r="AA41" s="4184"/>
+      <c r="AB41" s="4184"/>
+      <c r="AC41" s="4185"/>
+      <c r="AD41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE41" s="4187"/>
+      <c r="AF41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG41" s="4187"/>
+      <c r="AH41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI41" s="4187"/>
+      <c r="AJ41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK41" s="4187"/>
+      <c r="AL41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AM41" s="4187"/>
+      <c r="AN41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AO41" s="4187"/>
+      <c r="AP41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ41" s="4187"/>
+      <c r="AR41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS41" s="4187"/>
+      <c r="AT41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AU41" s="4187"/>
+      <c r="AV41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AW41" s="4187"/>
+      <c r="AX41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AY41" s="4187"/>
+      <c r="AZ41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BA41" s="4187"/>
+      <c r="BB41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BC41" s="4187"/>
+      <c r="BD41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE41" s="4187"/>
+      <c r="BF41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG41" s="4187"/>
+      <c r="BH41" s="4188"/>
+      <c r="BI41" s="4188"/>
+      <c r="BJ41" s="4188"/>
+      <c r="BK41" s="4188"/>
+      <c r="BL41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BM41" s="4187"/>
+      <c r="BN41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BO41" s="4187"/>
+      <c r="BP41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BQ41" s="4187"/>
+      <c r="BR41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BS41" s="4187"/>
+      <c r="BT41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BU41" s="4187"/>
+      <c r="BV41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW41" s="4187"/>
+      <c r="BX41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY41" s="4187"/>
+      <c r="BZ41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CA41" s="4187"/>
+      <c r="CB41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CC41" s="4187"/>
+      <c r="CD41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CE41" s="4187"/>
+      <c r="CF41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CG41" s="4187"/>
+      <c r="CH41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CI41" s="4187"/>
+      <c r="CJ41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="CK41" s="4187"/>
+      <c r="CL41" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="CM41" s="4187"/>
+      <c r="CN41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CO41" s="4187"/>
+      <c r="CP41" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CQ41" s="4187"/>
+      <c r="CR41" s="4188"/>
+      <c r="CS41" s="4188"/>
+      <c r="CT41" s="4188"/>
       <c r="CU41" s="4189"/>
     </row>
     <row r="42">
-      <c r="A42" s="4191"/>
+      <c r="A42" s="4192"/>
       <c r="B42" s="4190"/>
       <c r="C42" s="4190"/>
       <c r="D42" s="4190"/>
@@ -20310,47 +20357,47 @@
       <c r="AB42" s="4190"/>
       <c r="AC42" s="4190"/>
       <c r="AD42" s="4190" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AE42" s="4190"/>
       <c r="AF42" s="4190" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AG42" s="4190"/>
       <c r="AH42" s="4190" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AI42" s="4190"/>
       <c r="AJ42" s="4190" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AK42" s="4190"/>
       <c r="AL42" s="4190" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AM42" s="4190"/>
       <c r="AN42" s="4190" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AO42" s="4190"/>
       <c r="AP42" s="4190" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AQ42" s="4190"/>
       <c r="AR42" s="4190" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AS42" s="4190"/>
       <c r="AT42" s="4190" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AU42" s="4190"/>
       <c r="AV42" s="4190" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AW42" s="4190"/>
       <c r="AX42" s="4190" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AY42" s="4190"/>
       <c r="AZ42" s="4190" t="s">
@@ -20358,15 +20405,15 @@
       </c>
       <c r="BA42" s="4190"/>
       <c r="BB42" s="4190" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="BC42" s="4190"/>
       <c r="BD42" s="4190" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BE42" s="4190"/>
       <c r="BF42" s="4190" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="BG42" s="4190"/>
       <c r="BH42" s="4190"/>
@@ -20374,11 +20421,11 @@
       <c r="BJ42" s="4190"/>
       <c r="BK42" s="4190"/>
       <c r="BL42" s="4190" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BM42" s="4190"/>
       <c r="BN42" s="4190" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BO42" s="4190"/>
       <c r="BP42" s="4190" t="s">
@@ -20386,7 +20433,7 @@
       </c>
       <c r="BQ42" s="4190"/>
       <c r="BR42" s="4190" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BS42" s="4190"/>
       <c r="BT42" s="4190" t="s">
@@ -20394,31 +20441,31 @@
       </c>
       <c r="BU42" s="4190"/>
       <c r="BV42" s="4190" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BW42" s="4190"/>
       <c r="BX42" s="4190" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BY42" s="4190"/>
       <c r="BZ42" s="4190" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="CA42" s="4190"/>
       <c r="CB42" s="4190" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="CC42" s="4190"/>
       <c r="CD42" s="4190" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="CE42" s="4190"/>
       <c r="CF42" s="4190" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="CG42" s="4190"/>
       <c r="CH42" s="4190" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="CI42" s="4190"/>
       <c r="CJ42" s="4190" t="s">
@@ -20440,7 +20487,7 @@
       <c r="CR42" s="4190"/>
       <c r="CS42" s="4190"/>
       <c r="CT42" s="4190"/>
-      <c r="CU42" s="4192"/>
+      <c r="CU42" s="4193"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="n">
@@ -20448,7 +20495,7 @@
       </c>
       <c r="B43" s="2310"/>
       <c r="C43" s="2311" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2312"/>
       <c r="E43" s="2313"/>
@@ -20468,13 +20515,13 @@
       <c r="Q43" s="2325"/>
       <c r="R43" s="2326"/>
       <c r="S43" s="2327" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="T43" s="2328"/>
       <c r="U43" s="2329"/>
       <c r="V43" s="2330"/>
       <c r="W43" s="2331" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X43" s="2332"/>
       <c r="Y43" s="2333"/>
@@ -20482,126 +20529,126 @@
       <c r="AA43" s="2335"/>
       <c r="AB43" s="2336"/>
       <c r="AC43" s="2337"/>
-      <c r="AD43" s="4049" t="s">
+      <c r="AD43" s="4054" t="s">
         <v>61</v>
       </c>
       <c r="AE43" s="2339"/>
-      <c r="AF43" s="4050" t="s">
-        <v>70</v>
+      <c r="AF43" s="4055" t="s">
+        <v>71</v>
       </c>
       <c r="AG43" s="2341"/>
-      <c r="AH43" s="4051" t="s">
-        <v>70</v>
+      <c r="AH43" s="4056" t="s">
+        <v>71</v>
       </c>
       <c r="AI43" s="2343"/>
-      <c r="AJ43" s="4052" t="s">
-        <v>70</v>
+      <c r="AJ43" s="4057" t="s">
+        <v>71</v>
       </c>
       <c r="AK43" s="2345"/>
-      <c r="AL43" s="4053" t="s">
-        <v>70</v>
+      <c r="AL43" s="4058" t="s">
+        <v>71</v>
       </c>
       <c r="AM43" s="2347"/>
-      <c r="AN43" s="4054" t="s">
-        <v>70</v>
+      <c r="AN43" s="4059" t="s">
+        <v>71</v>
       </c>
       <c r="AO43" s="2349"/>
-      <c r="AP43" s="4055" t="s">
-        <v>70</v>
+      <c r="AP43" s="4060" t="s">
+        <v>71</v>
       </c>
       <c r="AQ43" s="2351"/>
-      <c r="AR43" s="4056" t="s">
-        <v>70</v>
+      <c r="AR43" s="4061" t="s">
+        <v>71</v>
       </c>
       <c r="AS43" s="2353"/>
-      <c r="AT43" s="4057" t="s">
-        <v>70</v>
+      <c r="AT43" s="4062" t="s">
+        <v>71</v>
       </c>
       <c r="AU43" s="2355"/>
-      <c r="AV43" s="4058" t="s">
-        <v>70</v>
+      <c r="AV43" s="4063" t="s">
+        <v>71</v>
       </c>
       <c r="AW43" s="2357"/>
-      <c r="AX43" s="4059" t="s">
-        <v>70</v>
+      <c r="AX43" s="4064" t="s">
+        <v>71</v>
       </c>
       <c r="AY43" s="2359"/>
-      <c r="AZ43" s="4060" t="s">
-        <v>70</v>
+      <c r="AZ43" s="4065" t="s">
+        <v>71</v>
       </c>
       <c r="BA43" s="2361"/>
-      <c r="BB43" s="4061" t="s">
-        <v>70</v>
+      <c r="BB43" s="4066" t="s">
+        <v>71</v>
       </c>
       <c r="BC43" s="2363"/>
-      <c r="BD43" s="4062" t="s">
-        <v>70</v>
+      <c r="BD43" s="4067" t="s">
+        <v>71</v>
       </c>
       <c r="BE43" s="2365"/>
-      <c r="BF43" s="4063" t="s">
-        <v>70</v>
+      <c r="BF43" s="4068" t="s">
+        <v>71</v>
       </c>
       <c r="BG43" s="2367"/>
       <c r="BH43" s="2368" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BI43" s="2369"/>
       <c r="BJ43" s="2370"/>
       <c r="BK43" s="2371"/>
-      <c r="BL43" s="4064" t="s">
-        <v>70</v>
+      <c r="BL43" s="4069" t="s">
+        <v>71</v>
       </c>
       <c r="BM43" s="2373"/>
-      <c r="BN43" s="4065" t="s">
-        <v>70</v>
+      <c r="BN43" s="4070" t="s">
+        <v>71</v>
       </c>
       <c r="BO43" s="2375"/>
-      <c r="BP43" s="4066" t="s">
-        <v>70</v>
+      <c r="BP43" s="4071" t="s">
+        <v>71</v>
       </c>
       <c r="BQ43" s="2377"/>
-      <c r="BR43" s="4067" t="s">
-        <v>70</v>
+      <c r="BR43" s="4072" t="s">
+        <v>71</v>
       </c>
       <c r="BS43" s="2379"/>
-      <c r="BT43" s="4068" t="s">
-        <v>70</v>
+      <c r="BT43" s="4073" t="s">
+        <v>71</v>
       </c>
       <c r="BU43" s="2381"/>
-      <c r="BV43" s="4069" t="s">
-        <v>70</v>
+      <c r="BV43" s="4074" t="s">
+        <v>71</v>
       </c>
       <c r="BW43" s="2383"/>
-      <c r="BX43" s="4070" t="s">
-        <v>70</v>
+      <c r="BX43" s="4075" t="s">
+        <v>71</v>
       </c>
       <c r="BY43" s="2385"/>
-      <c r="BZ43" s="4071" t="s">
-        <v>70</v>
+      <c r="BZ43" s="4076" t="s">
+        <v>71</v>
       </c>
       <c r="CA43" s="2387"/>
-      <c r="CB43" s="4072" t="s">
-        <v>70</v>
+      <c r="CB43" s="4077" t="s">
+        <v>71</v>
       </c>
       <c r="CC43" s="2389"/>
-      <c r="CD43" s="4073" t="s">
-        <v>70</v>
+      <c r="CD43" s="4078" t="s">
+        <v>71</v>
       </c>
       <c r="CE43" s="2391"/>
-      <c r="CF43" s="4074" t="s">
-        <v>70</v>
+      <c r="CF43" s="4079" t="s">
+        <v>71</v>
       </c>
       <c r="CG43" s="2393"/>
-      <c r="CH43" s="4075" t="s">
-        <v>70</v>
+      <c r="CH43" s="4080" t="s">
+        <v>71</v>
       </c>
       <c r="CI43" s="2395"/>
-      <c r="CJ43" s="4076" t="s">
-        <v>70</v>
+      <c r="CJ43" s="4081" t="s">
+        <v>71</v>
       </c>
       <c r="CK43" s="2397"/>
-      <c r="CL43" s="4077" t="s">
-        <v>70</v>
+      <c r="CL43" s="4082" t="s">
+        <v>71</v>
       </c>
       <c r="CM43" s="2399"/>
       <c r="CN43" s="2400" t="s">
@@ -20613,7 +20660,7 @@
       </c>
       <c r="CQ43" s="2403"/>
       <c r="CR43" s="2404" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="CS43" s="2405"/>
       <c r="CT43" s="2406"/>
@@ -20649,63 +20696,63 @@
       <c r="AA44" s="2434"/>
       <c r="AB44" s="2435"/>
       <c r="AC44" s="2436"/>
-      <c r="AD44" s="4049" t="s">
+      <c r="AD44" s="4054" t="s">
         <v>62</v>
       </c>
       <c r="AE44" s="2438"/>
-      <c r="AF44" s="4050" t="s">
+      <c r="AF44" s="4055" t="s">
         <v>62</v>
       </c>
       <c r="AG44" s="2440"/>
-      <c r="AH44" s="4051" t="s">
+      <c r="AH44" s="4056" t="s">
         <v>62</v>
       </c>
       <c r="AI44" s="2442"/>
-      <c r="AJ44" s="4052" t="s">
+      <c r="AJ44" s="4057" t="s">
         <v>62</v>
       </c>
       <c r="AK44" s="2444"/>
-      <c r="AL44" s="4053" t="s">
+      <c r="AL44" s="4058" t="s">
         <v>62</v>
       </c>
       <c r="AM44" s="2446"/>
-      <c r="AN44" s="4054" t="s">
+      <c r="AN44" s="4059" t="s">
         <v>62</v>
       </c>
       <c r="AO44" s="2448"/>
-      <c r="AP44" s="4055" t="s">
+      <c r="AP44" s="4060" t="s">
         <v>62</v>
       </c>
       <c r="AQ44" s="2450"/>
-      <c r="AR44" s="4056" t="s">
+      <c r="AR44" s="4061" t="s">
         <v>62</v>
       </c>
       <c r="AS44" s="2452"/>
-      <c r="AT44" s="4057" t="s">
+      <c r="AT44" s="4062" t="s">
         <v>62</v>
       </c>
       <c r="AU44" s="2454"/>
-      <c r="AV44" s="4058" t="s">
+      <c r="AV44" s="4063" t="s">
         <v>62</v>
       </c>
       <c r="AW44" s="2456"/>
-      <c r="AX44" s="4059" t="s">
+      <c r="AX44" s="4064" t="s">
         <v>62</v>
       </c>
       <c r="AY44" s="2458"/>
-      <c r="AZ44" s="4060" t="s">
+      <c r="AZ44" s="4065" t="s">
         <v>62</v>
       </c>
       <c r="BA44" s="2460"/>
-      <c r="BB44" s="4061" t="s">
+      <c r="BB44" s="4066" t="s">
         <v>62</v>
       </c>
       <c r="BC44" s="2462"/>
-      <c r="BD44" s="4062" t="s">
+      <c r="BD44" s="4067" t="s">
         <v>62</v>
       </c>
       <c r="BE44" s="2464"/>
-      <c r="BF44" s="4063" t="s">
+      <c r="BF44" s="4068" t="s">
         <v>62</v>
       </c>
       <c r="BG44" s="2466"/>
@@ -20713,59 +20760,59 @@
       <c r="BI44" s="2468"/>
       <c r="BJ44" s="2469"/>
       <c r="BK44" s="2470"/>
-      <c r="BL44" s="4064" t="s">
+      <c r="BL44" s="4069" t="s">
         <v>62</v>
       </c>
       <c r="BM44" s="2472"/>
-      <c r="BN44" s="4065" t="s">
+      <c r="BN44" s="4070" t="s">
         <v>62</v>
       </c>
       <c r="BO44" s="2474"/>
-      <c r="BP44" s="4066" t="s">
+      <c r="BP44" s="4071" t="s">
         <v>62</v>
       </c>
       <c r="BQ44" s="2476"/>
-      <c r="BR44" s="4067" t="s">
+      <c r="BR44" s="4072" t="s">
         <v>62</v>
       </c>
       <c r="BS44" s="2478"/>
-      <c r="BT44" s="4068" t="s">
+      <c r="BT44" s="4073" t="s">
         <v>62</v>
       </c>
       <c r="BU44" s="2480"/>
-      <c r="BV44" s="4069" t="s">
+      <c r="BV44" s="4074" t="s">
         <v>62</v>
       </c>
       <c r="BW44" s="2482"/>
-      <c r="BX44" s="4070" t="s">
+      <c r="BX44" s="4075" t="s">
         <v>62</v>
       </c>
       <c r="BY44" s="2484"/>
-      <c r="BZ44" s="4071" t="s">
+      <c r="BZ44" s="4076" t="s">
         <v>62</v>
       </c>
       <c r="CA44" s="2486"/>
-      <c r="CB44" s="4072" t="s">
+      <c r="CB44" s="4077" t="s">
         <v>62</v>
       </c>
       <c r="CC44" s="2488"/>
-      <c r="CD44" s="4073" t="s">
+      <c r="CD44" s="4078" t="s">
         <v>62</v>
       </c>
       <c r="CE44" s="2490"/>
-      <c r="CF44" s="4074" t="s">
+      <c r="CF44" s="4079" t="s">
         <v>62</v>
       </c>
       <c r="CG44" s="2492"/>
-      <c r="CH44" s="4075" t="s">
+      <c r="CH44" s="4080" t="s">
         <v>62</v>
       </c>
       <c r="CI44" s="2494"/>
-      <c r="CJ44" s="4076" t="s">
+      <c r="CJ44" s="4081" t="s">
         <v>62</v>
       </c>
       <c r="CK44" s="2496"/>
-      <c r="CL44" s="4077" t="s">
+      <c r="CL44" s="4082" t="s">
         <v>62</v>
       </c>
       <c r="CM44" s="2498"/>
@@ -20788,7 +20835,7 @@
       </c>
       <c r="B45" s="2508"/>
       <c r="C45" s="2509" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2510"/>
       <c r="E45" s="2511"/>
@@ -20808,13 +20855,13 @@
       <c r="Q45" s="2523"/>
       <c r="R45" s="2524"/>
       <c r="S45" s="2525" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="T45" s="2526"/>
       <c r="U45" s="2527"/>
       <c r="V45" s="2528"/>
       <c r="W45" s="2529" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X45" s="2530"/>
       <c r="Y45" s="2531"/>
@@ -20822,7 +20869,7 @@
       <c r="AA45" s="2533"/>
       <c r="AB45" s="2534"/>
       <c r="AC45" s="2535"/>
-      <c r="AD45" s="4079" t="s">
+      <c r="AD45" s="4084" t="s">
         <v>61</v>
       </c>
       <c r="AE45" s="2537"/>
@@ -20846,11 +20893,11 @@
         <v>63</v>
       </c>
       <c r="AO45" s="2547"/>
-      <c r="AP45" s="4080" t="s">
+      <c r="AP45" s="4085" t="s">
         <v>61</v>
       </c>
       <c r="AQ45" s="2549"/>
-      <c r="AR45" s="4081" t="s">
+      <c r="AR45" s="4086" t="s">
         <v>61</v>
       </c>
       <c r="AS45" s="2551"/>
@@ -20874,11 +20921,11 @@
         <v>63</v>
       </c>
       <c r="BC45" s="2561"/>
-      <c r="BD45" s="4082" t="s">
+      <c r="BD45" s="4087" t="s">
         <v>61</v>
       </c>
       <c r="BE45" s="2563"/>
-      <c r="BF45" s="4083" t="s">
+      <c r="BF45" s="4088" t="s">
         <v>61</v>
       </c>
       <c r="BG45" s="2565"/>
@@ -20908,11 +20955,11 @@
         <v>63</v>
       </c>
       <c r="BU45" s="2579"/>
-      <c r="BV45" s="4084" t="s">
+      <c r="BV45" s="4089" t="s">
         <v>61</v>
       </c>
       <c r="BW45" s="2581"/>
-      <c r="BX45" s="4085" t="s">
+      <c r="BX45" s="4090" t="s">
         <v>61</v>
       </c>
       <c r="BY45" s="2583"/>
@@ -20936,11 +20983,11 @@
         <v>63</v>
       </c>
       <c r="CI45" s="2593"/>
-      <c r="CJ45" s="4086" t="s">
+      <c r="CJ45" s="4091" t="s">
         <v>61</v>
       </c>
       <c r="CK45" s="2595"/>
-      <c r="CL45" s="4087" t="s">
+      <c r="CL45" s="4092" t="s">
         <v>61</v>
       </c>
       <c r="CM45" s="2597"/>
@@ -20989,7 +21036,7 @@
       <c r="AA46" s="2632"/>
       <c r="AB46" s="2633"/>
       <c r="AC46" s="2634"/>
-      <c r="AD46" s="4079" t="s">
+      <c r="AD46" s="4084" t="s">
         <v>62</v>
       </c>
       <c r="AE46" s="2636"/>
@@ -21013,11 +21060,11 @@
         <v>8.0</v>
       </c>
       <c r="AO46" s="2646"/>
-      <c r="AP46" s="4080" t="s">
+      <c r="AP46" s="4085" t="s">
         <v>62</v>
       </c>
       <c r="AQ46" s="2648"/>
-      <c r="AR46" s="4081" t="s">
+      <c r="AR46" s="4086" t="s">
         <v>62</v>
       </c>
       <c r="AS46" s="2650"/>
@@ -21041,11 +21088,11 @@
         <v>8.0</v>
       </c>
       <c r="BC46" s="2660"/>
-      <c r="BD46" s="4082" t="s">
+      <c r="BD46" s="4087" t="s">
         <v>62</v>
       </c>
       <c r="BE46" s="2662"/>
-      <c r="BF46" s="4083" t="s">
+      <c r="BF46" s="4088" t="s">
         <v>62</v>
       </c>
       <c r="BG46" s="2664"/>
@@ -21073,11 +21120,11 @@
         <v>8.0</v>
       </c>
       <c r="BU46" s="2678"/>
-      <c r="BV46" s="4084" t="s">
+      <c r="BV46" s="4089" t="s">
         <v>62</v>
       </c>
       <c r="BW46" s="2680"/>
-      <c r="BX46" s="4085" t="s">
+      <c r="BX46" s="4090" t="s">
         <v>62</v>
       </c>
       <c r="BY46" s="2682"/>
@@ -21101,11 +21148,11 @@
         <v>8.0</v>
       </c>
       <c r="CI46" s="2692"/>
-      <c r="CJ46" s="4086" t="s">
+      <c r="CJ46" s="4091" t="s">
         <v>62</v>
       </c>
       <c r="CK46" s="2694"/>
-      <c r="CL46" s="4087" t="s">
+      <c r="CL46" s="4092" t="s">
         <v>62</v>
       </c>
       <c r="CM46" s="2696"/>
@@ -21128,7 +21175,7 @@
       </c>
       <c r="B47" s="2706"/>
       <c r="C47" s="2707" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2708"/>
       <c r="E47" s="2709"/>
@@ -21148,13 +21195,13 @@
       <c r="Q47" s="2721"/>
       <c r="R47" s="2722"/>
       <c r="S47" s="2723" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="T47" s="2724"/>
       <c r="U47" s="2725"/>
       <c r="V47" s="2726"/>
       <c r="W47" s="2727" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X47" s="2728"/>
       <c r="Y47" s="2729"/>
@@ -21162,7 +21209,7 @@
       <c r="AA47" s="2731"/>
       <c r="AB47" s="2732"/>
       <c r="AC47" s="2733"/>
-      <c r="AD47" s="4088" t="s">
+      <c r="AD47" s="4093" t="s">
         <v>61</v>
       </c>
       <c r="AE47" s="2735"/>
@@ -21186,11 +21233,11 @@
         <v>63</v>
       </c>
       <c r="AO47" s="2745"/>
-      <c r="AP47" s="4089" t="s">
+      <c r="AP47" s="4094" t="s">
         <v>61</v>
       </c>
       <c r="AQ47" s="2747"/>
-      <c r="AR47" s="4090" t="s">
+      <c r="AR47" s="4095" t="s">
         <v>61</v>
       </c>
       <c r="AS47" s="2749"/>
@@ -21214,11 +21261,11 @@
         <v>63</v>
       </c>
       <c r="BC47" s="2759"/>
-      <c r="BD47" s="4091" t="s">
+      <c r="BD47" s="4096" t="s">
         <v>61</v>
       </c>
       <c r="BE47" s="2761"/>
-      <c r="BF47" s="4092" t="s">
+      <c r="BF47" s="4097" t="s">
         <v>61</v>
       </c>
       <c r="BG47" s="2763"/>
@@ -21248,11 +21295,11 @@
         <v>63</v>
       </c>
       <c r="BU47" s="2777"/>
-      <c r="BV47" s="4093" t="s">
+      <c r="BV47" s="4098" t="s">
         <v>61</v>
       </c>
       <c r="BW47" s="2779"/>
-      <c r="BX47" s="4094" t="s">
+      <c r="BX47" s="4099" t="s">
         <v>61</v>
       </c>
       <c r="BY47" s="2781"/>
@@ -21276,24 +21323,24 @@
         <v>63</v>
       </c>
       <c r="CI47" s="2791"/>
-      <c r="CJ47" s="4095" t="s">
+      <c r="CJ47" s="4100" t="s">
         <v>61</v>
       </c>
       <c r="CK47" s="2793"/>
-      <c r="CL47" s="4096" t="s">
+      <c r="CL47" s="4101" t="s">
         <v>61</v>
       </c>
       <c r="CM47" s="2795"/>
-      <c r="CN47" s="4097" t="s">
-        <v>70</v>
+      <c r="CN47" s="4102" t="s">
+        <v>71</v>
       </c>
       <c r="CO47" s="2797"/>
-      <c r="CP47" s="4098" t="s">
-        <v>70</v>
+      <c r="CP47" s="4103" t="s">
+        <v>71</v>
       </c>
       <c r="CQ47" s="2799"/>
       <c r="CR47" s="2800" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS47" s="2801"/>
       <c r="CT47" s="2802"/>
@@ -21329,7 +21376,7 @@
       <c r="AA48" s="2830"/>
       <c r="AB48" s="2831"/>
       <c r="AC48" s="2832"/>
-      <c r="AD48" s="4088" t="s">
+      <c r="AD48" s="4093" t="s">
         <v>62</v>
       </c>
       <c r="AE48" s="2834"/>
@@ -21353,11 +21400,11 @@
         <v>4.0</v>
       </c>
       <c r="AO48" s="2844"/>
-      <c r="AP48" s="4089" t="s">
+      <c r="AP48" s="4094" t="s">
         <v>62</v>
       </c>
       <c r="AQ48" s="2846"/>
-      <c r="AR48" s="4090" t="s">
+      <c r="AR48" s="4095" t="s">
         <v>62</v>
       </c>
       <c r="AS48" s="2848"/>
@@ -21381,11 +21428,11 @@
         <v>4.0</v>
       </c>
       <c r="BC48" s="2858"/>
-      <c r="BD48" s="4091" t="s">
+      <c r="BD48" s="4096" t="s">
         <v>62</v>
       </c>
       <c r="BE48" s="2860"/>
-      <c r="BF48" s="4092" t="s">
+      <c r="BF48" s="4097" t="s">
         <v>62</v>
       </c>
       <c r="BG48" s="2862"/>
@@ -21413,11 +21460,11 @@
         <v>4.0</v>
       </c>
       <c r="BU48" s="2876"/>
-      <c r="BV48" s="4093" t="s">
+      <c r="BV48" s="4098" t="s">
         <v>62</v>
       </c>
       <c r="BW48" s="2878"/>
-      <c r="BX48" s="4094" t="s">
+      <c r="BX48" s="4099" t="s">
         <v>62</v>
       </c>
       <c r="BY48" s="2880"/>
@@ -21441,19 +21488,19 @@
         <v>4.0</v>
       </c>
       <c r="CI48" s="2890"/>
-      <c r="CJ48" s="4095" t="s">
+      <c r="CJ48" s="4100" t="s">
         <v>62</v>
       </c>
       <c r="CK48" s="2892"/>
-      <c r="CL48" s="4096" t="s">
+      <c r="CL48" s="4101" t="s">
         <v>62</v>
       </c>
       <c r="CM48" s="2894"/>
-      <c r="CN48" s="4097" t="s">
+      <c r="CN48" s="4102" t="s">
         <v>62</v>
       </c>
       <c r="CO48" s="2896"/>
-      <c r="CP48" s="4098" t="s">
+      <c r="CP48" s="4103" t="s">
         <v>62</v>
       </c>
       <c r="CQ48" s="2898"/>
@@ -21468,7 +21515,7 @@
       </c>
       <c r="B49" s="2904"/>
       <c r="C49" s="2905" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2906"/>
       <c r="E49" s="2907"/>
@@ -21488,13 +21535,13 @@
       <c r="Q49" s="2919"/>
       <c r="R49" s="2920"/>
       <c r="S49" s="2921" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="T49" s="2922"/>
       <c r="U49" s="2923"/>
       <c r="V49" s="2924"/>
       <c r="W49" s="2925" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X49" s="2926"/>
       <c r="Y49" s="2927"/>
@@ -21502,7 +21549,7 @@
       <c r="AA49" s="2929"/>
       <c r="AB49" s="2930"/>
       <c r="AC49" s="2931"/>
-      <c r="AD49" s="4099" t="s">
+      <c r="AD49" s="4104" t="s">
         <v>61</v>
       </c>
       <c r="AE49" s="2933"/>
@@ -21526,11 +21573,11 @@
         <v>63</v>
       </c>
       <c r="AO49" s="2943"/>
-      <c r="AP49" s="4100" t="s">
+      <c r="AP49" s="4105" t="s">
         <v>61</v>
       </c>
       <c r="AQ49" s="2945"/>
-      <c r="AR49" s="4101" t="s">
+      <c r="AR49" s="4106" t="s">
         <v>61</v>
       </c>
       <c r="AS49" s="2947"/>
@@ -21554,11 +21601,11 @@
         <v>63</v>
       </c>
       <c r="BC49" s="2957"/>
-      <c r="BD49" s="4102" t="s">
+      <c r="BD49" s="4107" t="s">
         <v>61</v>
       </c>
       <c r="BE49" s="2959"/>
-      <c r="BF49" s="4103" t="s">
+      <c r="BF49" s="4108" t="s">
         <v>61</v>
       </c>
       <c r="BG49" s="2961"/>
@@ -21588,11 +21635,11 @@
         <v>63</v>
       </c>
       <c r="BU49" s="2975"/>
-      <c r="BV49" s="4104" t="s">
+      <c r="BV49" s="4109" t="s">
         <v>61</v>
       </c>
       <c r="BW49" s="2977"/>
-      <c r="BX49" s="4105" t="s">
+      <c r="BX49" s="4110" t="s">
         <v>61</v>
       </c>
       <c r="BY49" s="2979"/>
@@ -21616,24 +21663,24 @@
         <v>63</v>
       </c>
       <c r="CI49" s="2989"/>
-      <c r="CJ49" s="4106" t="s">
+      <c r="CJ49" s="4111" t="s">
         <v>61</v>
       </c>
       <c r="CK49" s="2991"/>
-      <c r="CL49" s="4107" t="s">
+      <c r="CL49" s="4112" t="s">
         <v>61</v>
       </c>
       <c r="CM49" s="2993"/>
-      <c r="CN49" s="4108" t="s">
-        <v>70</v>
+      <c r="CN49" s="4113" t="s">
+        <v>71</v>
       </c>
       <c r="CO49" s="2995"/>
-      <c r="CP49" s="4109" t="s">
-        <v>70</v>
+      <c r="CP49" s="4114" t="s">
+        <v>71</v>
       </c>
       <c r="CQ49" s="2997"/>
       <c r="CR49" s="2998" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CS49" s="2999"/>
       <c r="CT49" s="3000"/>
@@ -21669,7 +21716,7 @@
       <c r="AA50" s="3028"/>
       <c r="AB50" s="3029"/>
       <c r="AC50" s="3030"/>
-      <c r="AD50" s="4099" t="s">
+      <c r="AD50" s="4104" t="s">
         <v>62</v>
       </c>
       <c r="AE50" s="3032"/>
@@ -21693,11 +21740,11 @@
         <v>8.0</v>
       </c>
       <c r="AO50" s="3042"/>
-      <c r="AP50" s="4100" t="s">
+      <c r="AP50" s="4105" t="s">
         <v>62</v>
       </c>
       <c r="AQ50" s="3044"/>
-      <c r="AR50" s="4101" t="s">
+      <c r="AR50" s="4106" t="s">
         <v>62</v>
       </c>
       <c r="AS50" s="3046"/>
@@ -21721,11 +21768,11 @@
         <v>8.0</v>
       </c>
       <c r="BC50" s="3056"/>
-      <c r="BD50" s="4102" t="s">
+      <c r="BD50" s="4107" t="s">
         <v>62</v>
       </c>
       <c r="BE50" s="3058"/>
-      <c r="BF50" s="4103" t="s">
+      <c r="BF50" s="4108" t="s">
         <v>62</v>
       </c>
       <c r="BG50" s="3060"/>
@@ -21753,11 +21800,11 @@
         <v>8.0</v>
       </c>
       <c r="BU50" s="3074"/>
-      <c r="BV50" s="4104" t="s">
+      <c r="BV50" s="4109" t="s">
         <v>62</v>
       </c>
       <c r="BW50" s="3076"/>
-      <c r="BX50" s="4105" t="s">
+      <c r="BX50" s="4110" t="s">
         <v>62</v>
       </c>
       <c r="BY50" s="3078"/>
@@ -21781,19 +21828,19 @@
         <v>8.0</v>
       </c>
       <c r="CI50" s="3088"/>
-      <c r="CJ50" s="4106" t="s">
+      <c r="CJ50" s="4111" t="s">
         <v>62</v>
       </c>
       <c r="CK50" s="3090"/>
-      <c r="CL50" s="4107" t="s">
+      <c r="CL50" s="4112" t="s">
         <v>62</v>
       </c>
       <c r="CM50" s="3092"/>
-      <c r="CN50" s="4108" t="s">
+      <c r="CN50" s="4113" t="s">
         <v>62</v>
       </c>
       <c r="CO50" s="3094"/>
-      <c r="CP50" s="4109" t="s">
+      <c r="CP50" s="4114" t="s">
         <v>62</v>
       </c>
       <c r="CQ50" s="3096"/>
@@ -21808,7 +21855,7 @@
       </c>
       <c r="B51" s="3102"/>
       <c r="C51" s="3103" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D51" s="3104"/>
       <c r="E51" s="3105"/>
@@ -21828,13 +21875,13 @@
       <c r="Q51" s="3117"/>
       <c r="R51" s="3118"/>
       <c r="S51" s="3119" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="T51" s="3120"/>
       <c r="U51" s="3121"/>
       <c r="V51" s="3122"/>
       <c r="W51" s="3123" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="X51" s="3124"/>
       <c r="Y51" s="3125"/>
@@ -21842,7 +21889,7 @@
       <c r="AA51" s="3127"/>
       <c r="AB51" s="3128"/>
       <c r="AC51" s="3129"/>
-      <c r="AD51" s="4110" t="s">
+      <c r="AD51" s="4115" t="s">
         <v>61</v>
       </c>
       <c r="AE51" s="3131"/>
@@ -21866,11 +21913,11 @@
         <v>63</v>
       </c>
       <c r="AO51" s="3141"/>
-      <c r="AP51" s="4111" t="s">
+      <c r="AP51" s="4116" t="s">
         <v>61</v>
       </c>
       <c r="AQ51" s="3143"/>
-      <c r="AR51" s="4112" t="s">
+      <c r="AR51" s="4117" t="s">
         <v>61</v>
       </c>
       <c r="AS51" s="3145"/>
@@ -21894,11 +21941,11 @@
         <v>63</v>
       </c>
       <c r="BC51" s="3155"/>
-      <c r="BD51" s="4113" t="s">
+      <c r="BD51" s="4118" t="s">
         <v>61</v>
       </c>
       <c r="BE51" s="3157"/>
-      <c r="BF51" s="4114" t="s">
+      <c r="BF51" s="4119" t="s">
         <v>61</v>
       </c>
       <c r="BG51" s="3159"/>
@@ -21928,11 +21975,11 @@
         <v>63</v>
       </c>
       <c r="BU51" s="3173"/>
-      <c r="BV51" s="4115" t="s">
+      <c r="BV51" s="4120" t="s">
         <v>61</v>
       </c>
       <c r="BW51" s="3175"/>
-      <c r="BX51" s="4116" t="s">
+      <c r="BX51" s="4121" t="s">
         <v>61</v>
       </c>
       <c r="BY51" s="3177"/>
@@ -21948,32 +21995,20 @@
         <v>63</v>
       </c>
       <c r="CE51" s="3183"/>
-      <c r="CF51" s="3184" t="s">
-        <v>63</v>
-      </c>
+      <c r="CF51" s="3184"/>
       <c r="CG51" s="3185"/>
-      <c r="CH51" s="3186" t="s">
-        <v>63</v>
-      </c>
+      <c r="CH51" s="3186"/>
       <c r="CI51" s="3187"/>
-      <c r="CJ51" s="4117" t="s">
-        <v>61</v>
-      </c>
+      <c r="CJ51" s="3188"/>
       <c r="CK51" s="3189"/>
-      <c r="CL51" s="4118" t="s">
-        <v>61</v>
-      </c>
+      <c r="CL51" s="3190"/>
       <c r="CM51" s="3191"/>
-      <c r="CN51" s="4119" t="s">
-        <v>70</v>
-      </c>
+      <c r="CN51" s="3192"/>
       <c r="CO51" s="3193"/>
-      <c r="CP51" s="4120" t="s">
-        <v>70</v>
-      </c>
+      <c r="CP51" s="3194"/>
       <c r="CQ51" s="3195"/>
       <c r="CR51" s="3196" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="CS51" s="3197"/>
       <c r="CT51" s="3198"/>
@@ -22009,7 +22044,7 @@
       <c r="AA52" s="3226"/>
       <c r="AB52" s="3227"/>
       <c r="AC52" s="3228"/>
-      <c r="AD52" s="4110" t="s">
+      <c r="AD52" s="4115" t="s">
         <v>62</v>
       </c>
       <c r="AE52" s="3230"/>
@@ -22033,11 +22068,11 @@
         <v>8.0</v>
       </c>
       <c r="AO52" s="3240"/>
-      <c r="AP52" s="4111" t="s">
+      <c r="AP52" s="4116" t="s">
         <v>62</v>
       </c>
       <c r="AQ52" s="3242"/>
-      <c r="AR52" s="4112" t="s">
+      <c r="AR52" s="4117" t="s">
         <v>62</v>
       </c>
       <c r="AS52" s="3244"/>
@@ -22061,11 +22096,11 @@
         <v>8.0</v>
       </c>
       <c r="BC52" s="3254"/>
-      <c r="BD52" s="4113" t="s">
+      <c r="BD52" s="4118" t="s">
         <v>62</v>
       </c>
       <c r="BE52" s="3256"/>
-      <c r="BF52" s="4114" t="s">
+      <c r="BF52" s="4119" t="s">
         <v>62</v>
       </c>
       <c r="BG52" s="3258"/>
@@ -22093,11 +22128,11 @@
         <v>8.0</v>
       </c>
       <c r="BU52" s="3272"/>
-      <c r="BV52" s="4115" t="s">
+      <c r="BV52" s="4120" t="s">
         <v>62</v>
       </c>
       <c r="BW52" s="3274"/>
-      <c r="BX52" s="4116" t="s">
+      <c r="BX52" s="4121" t="s">
         <v>62</v>
       </c>
       <c r="BY52" s="3276"/>
@@ -22113,29 +22148,17 @@
         <v>8.0</v>
       </c>
       <c r="CE52" s="3282"/>
-      <c r="CF52" s="3283" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="CF52" s="3283"/>
       <c r="CG52" s="3284"/>
-      <c r="CH52" s="3285" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="CH52" s="3285"/>
       <c r="CI52" s="3286"/>
-      <c r="CJ52" s="4117" t="s">
-        <v>62</v>
-      </c>
+      <c r="CJ52" s="3287"/>
       <c r="CK52" s="3288"/>
-      <c r="CL52" s="4118" t="s">
-        <v>62</v>
-      </c>
+      <c r="CL52" s="3289"/>
       <c r="CM52" s="3290"/>
-      <c r="CN52" s="4119" t="s">
-        <v>62</v>
-      </c>
+      <c r="CN52" s="3291"/>
       <c r="CO52" s="3292"/>
-      <c r="CP52" s="4120" t="s">
-        <v>62</v>
-      </c>
+      <c r="CP52" s="3293"/>
       <c r="CQ52" s="3294"/>
       <c r="CR52" s="3295"/>
       <c r="CS52" s="3296"/>
@@ -22148,7 +22171,7 @@
       </c>
       <c r="B53" s="3300"/>
       <c r="C53" s="3301" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D53" s="3302"/>
       <c r="E53" s="3303"/>
@@ -22168,13 +22191,13 @@
       <c r="Q53" s="3315"/>
       <c r="R53" s="3316"/>
       <c r="S53" s="3317" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="T53" s="3318"/>
       <c r="U53" s="3319"/>
       <c r="V53" s="3320"/>
       <c r="W53" s="3321" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="X53" s="3322"/>
       <c r="Y53" s="3323"/>
@@ -22182,68 +22205,68 @@
       <c r="AA53" s="3325"/>
       <c r="AB53" s="3326"/>
       <c r="AC53" s="3327"/>
-      <c r="AD53" s="4121" t="s">
-        <v>70</v>
+      <c r="AD53" s="4122" t="s">
+        <v>71</v>
       </c>
       <c r="AE53" s="3329"/>
-      <c r="AF53" s="4122" t="s">
-        <v>70</v>
+      <c r="AF53" s="4123" t="s">
+        <v>71</v>
       </c>
       <c r="AG53" s="3331"/>
-      <c r="AH53" s="4123" t="s">
-        <v>70</v>
+      <c r="AH53" s="4124" t="s">
+        <v>71</v>
       </c>
       <c r="AI53" s="3333"/>
-      <c r="AJ53" s="4124" t="s">
-        <v>70</v>
+      <c r="AJ53" s="4125" t="s">
+        <v>71</v>
       </c>
       <c r="AK53" s="3335"/>
-      <c r="AL53" s="4125" t="s">
-        <v>70</v>
+      <c r="AL53" s="4126" t="s">
+        <v>71</v>
       </c>
       <c r="AM53" s="3337"/>
-      <c r="AN53" s="4126" t="s">
-        <v>70</v>
+      <c r="AN53" s="4127" t="s">
+        <v>71</v>
       </c>
       <c r="AO53" s="3339"/>
-      <c r="AP53" s="4127" t="s">
-        <v>70</v>
+      <c r="AP53" s="4128" t="s">
+        <v>71</v>
       </c>
       <c r="AQ53" s="3341"/>
-      <c r="AR53" s="4128" t="s">
-        <v>70</v>
+      <c r="AR53" s="4129" t="s">
+        <v>71</v>
       </c>
       <c r="AS53" s="3343"/>
-      <c r="AT53" s="4129" t="s">
-        <v>70</v>
+      <c r="AT53" s="4130" t="s">
+        <v>71</v>
       </c>
       <c r="AU53" s="3345"/>
-      <c r="AV53" s="4130" t="s">
-        <v>70</v>
+      <c r="AV53" s="4131" t="s">
+        <v>71</v>
       </c>
       <c r="AW53" s="3347"/>
-      <c r="AX53" s="4131" t="s">
-        <v>70</v>
+      <c r="AX53" s="4132" t="s">
+        <v>71</v>
       </c>
       <c r="AY53" s="3349"/>
-      <c r="AZ53" s="4132" t="s">
-        <v>70</v>
+      <c r="AZ53" s="4133" t="s">
+        <v>71</v>
       </c>
       <c r="BA53" s="3351"/>
-      <c r="BB53" s="4133" t="s">
-        <v>70</v>
+      <c r="BB53" s="4134" t="s">
+        <v>71</v>
       </c>
       <c r="BC53" s="3353"/>
-      <c r="BD53" s="4134" t="s">
-        <v>70</v>
+      <c r="BD53" s="4135" t="s">
+        <v>71</v>
       </c>
       <c r="BE53" s="3355"/>
-      <c r="BF53" s="4135" t="s">
-        <v>70</v>
+      <c r="BF53" s="4136" t="s">
+        <v>71</v>
       </c>
       <c r="BG53" s="3357"/>
       <c r="BH53" s="3358" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BI53" s="3359"/>
       <c r="BJ53" s="3360"/>
@@ -22268,11 +22291,11 @@
         <v>63</v>
       </c>
       <c r="BU53" s="3371"/>
-      <c r="BV53" s="4136" t="s">
+      <c r="BV53" s="4137" t="s">
         <v>61</v>
       </c>
       <c r="BW53" s="3373"/>
-      <c r="BX53" s="4137" t="s">
+      <c r="BX53" s="4138" t="s">
         <v>61</v>
       </c>
       <c r="BY53" s="3375"/>
@@ -22296,11 +22319,11 @@
         <v>63</v>
       </c>
       <c r="CI53" s="3385"/>
-      <c r="CJ53" s="4138" t="s">
+      <c r="CJ53" s="4139" t="s">
         <v>61</v>
       </c>
       <c r="CK53" s="3387"/>
-      <c r="CL53" s="4139" t="s">
+      <c r="CL53" s="4140" t="s">
         <v>61</v>
       </c>
       <c r="CM53" s="3389"/>
@@ -22313,7 +22336,7 @@
       </c>
       <c r="CQ53" s="3393"/>
       <c r="CR53" s="3394" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="CS53" s="3395"/>
       <c r="CT53" s="3396"/>
@@ -22349,63 +22372,63 @@
       <c r="AA54" s="3424"/>
       <c r="AB54" s="3425"/>
       <c r="AC54" s="3426"/>
-      <c r="AD54" s="4121" t="s">
+      <c r="AD54" s="4122" t="s">
         <v>62</v>
       </c>
       <c r="AE54" s="3428"/>
-      <c r="AF54" s="4122" t="s">
+      <c r="AF54" s="4123" t="s">
         <v>62</v>
       </c>
       <c r="AG54" s="3430"/>
-      <c r="AH54" s="4123" t="s">
+      <c r="AH54" s="4124" t="s">
         <v>62</v>
       </c>
       <c r="AI54" s="3432"/>
-      <c r="AJ54" s="4124" t="s">
+      <c r="AJ54" s="4125" t="s">
         <v>62</v>
       </c>
       <c r="AK54" s="3434"/>
-      <c r="AL54" s="4125" t="s">
+      <c r="AL54" s="4126" t="s">
         <v>62</v>
       </c>
       <c r="AM54" s="3436"/>
-      <c r="AN54" s="4126" t="s">
+      <c r="AN54" s="4127" t="s">
         <v>62</v>
       </c>
       <c r="AO54" s="3438"/>
-      <c r="AP54" s="4127" t="s">
+      <c r="AP54" s="4128" t="s">
         <v>62</v>
       </c>
       <c r="AQ54" s="3440"/>
-      <c r="AR54" s="4128" t="s">
+      <c r="AR54" s="4129" t="s">
         <v>62</v>
       </c>
       <c r="AS54" s="3442"/>
-      <c r="AT54" s="4129" t="s">
+      <c r="AT54" s="4130" t="s">
         <v>62</v>
       </c>
       <c r="AU54" s="3444"/>
-      <c r="AV54" s="4130" t="s">
+      <c r="AV54" s="4131" t="s">
         <v>62</v>
       </c>
       <c r="AW54" s="3446"/>
-      <c r="AX54" s="4131" t="s">
+      <c r="AX54" s="4132" t="s">
         <v>62</v>
       </c>
       <c r="AY54" s="3448"/>
-      <c r="AZ54" s="4132" t="s">
+      <c r="AZ54" s="4133" t="s">
         <v>62</v>
       </c>
       <c r="BA54" s="3450"/>
-      <c r="BB54" s="4133" t="s">
+      <c r="BB54" s="4134" t="s">
         <v>62</v>
       </c>
       <c r="BC54" s="3452"/>
-      <c r="BD54" s="4134" t="s">
+      <c r="BD54" s="4135" t="s">
         <v>62</v>
       </c>
       <c r="BE54" s="3454"/>
-      <c r="BF54" s="4135" t="s">
+      <c r="BF54" s="4136" t="s">
         <v>62</v>
       </c>
       <c r="BG54" s="3456"/>
@@ -22433,11 +22456,11 @@
         <v>8.0</v>
       </c>
       <c r="BU54" s="3470"/>
-      <c r="BV54" s="4136" t="s">
+      <c r="BV54" s="4137" t="s">
         <v>62</v>
       </c>
       <c r="BW54" s="3472"/>
-      <c r="BX54" s="4137" t="s">
+      <c r="BX54" s="4138" t="s">
         <v>62</v>
       </c>
       <c r="BY54" s="3474"/>
@@ -22461,11 +22484,11 @@
         <v>8.0</v>
       </c>
       <c r="CI54" s="3484"/>
-      <c r="CJ54" s="4138" t="s">
+      <c r="CJ54" s="4139" t="s">
         <v>62</v>
       </c>
       <c r="CK54" s="3486"/>
-      <c r="CL54" s="4139" t="s">
+      <c r="CL54" s="4140" t="s">
         <v>62</v>
       </c>
       <c r="CM54" s="3488"/>
@@ -22508,13 +22531,13 @@
       <c r="Q55" s="3513"/>
       <c r="R55" s="3514"/>
       <c r="S55" s="3515" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="T55" s="3516"/>
       <c r="U55" s="3517"/>
       <c r="V55" s="3518"/>
       <c r="W55" s="3519" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="X55" s="3520"/>
       <c r="Y55" s="3521"/>
@@ -22522,7 +22545,7 @@
       <c r="AA55" s="3523"/>
       <c r="AB55" s="3524"/>
       <c r="AC55" s="3525"/>
-      <c r="AD55" s="4140" t="s">
+      <c r="AD55" s="4141" t="s">
         <v>61</v>
       </c>
       <c r="AE55" s="3527"/>
@@ -22546,11 +22569,11 @@
         <v>63</v>
       </c>
       <c r="AO55" s="3537"/>
-      <c r="AP55" s="4141" t="s">
+      <c r="AP55" s="4142" t="s">
         <v>61</v>
       </c>
       <c r="AQ55" s="3539"/>
-      <c r="AR55" s="4142" t="s">
+      <c r="AR55" s="4143" t="s">
         <v>61</v>
       </c>
       <c r="AS55" s="3541"/>
@@ -22574,11 +22597,11 @@
         <v>63</v>
       </c>
       <c r="BC55" s="3551"/>
-      <c r="BD55" s="4143" t="s">
+      <c r="BD55" s="4144" t="s">
         <v>61</v>
       </c>
       <c r="BE55" s="3553"/>
-      <c r="BF55" s="4144" t="s">
+      <c r="BF55" s="4145" t="s">
         <v>61</v>
       </c>
       <c r="BG55" s="3555"/>
@@ -22588,72 +22611,72 @@
       <c r="BI55" s="3557"/>
       <c r="BJ55" s="3558"/>
       <c r="BK55" s="3559"/>
-      <c r="BL55" s="4145" t="s">
-        <v>70</v>
+      <c r="BL55" s="4146" t="s">
+        <v>71</v>
       </c>
       <c r="BM55" s="3561"/>
-      <c r="BN55" s="4146" t="s">
-        <v>70</v>
+      <c r="BN55" s="4147" t="s">
+        <v>71</v>
       </c>
       <c r="BO55" s="3563"/>
-      <c r="BP55" s="4147" t="s">
-        <v>70</v>
+      <c r="BP55" s="4148" t="s">
+        <v>71</v>
       </c>
       <c r="BQ55" s="3565"/>
-      <c r="BR55" s="4148" t="s">
-        <v>70</v>
+      <c r="BR55" s="4149" t="s">
+        <v>71</v>
       </c>
       <c r="BS55" s="3567"/>
-      <c r="BT55" s="4149" t="s">
-        <v>70</v>
+      <c r="BT55" s="4150" t="s">
+        <v>71</v>
       </c>
       <c r="BU55" s="3569"/>
-      <c r="BV55" s="4150" t="s">
-        <v>70</v>
+      <c r="BV55" s="4151" t="s">
+        <v>71</v>
       </c>
       <c r="BW55" s="3571"/>
-      <c r="BX55" s="4151" t="s">
-        <v>70</v>
+      <c r="BX55" s="4152" t="s">
+        <v>71</v>
       </c>
       <c r="BY55" s="3573"/>
-      <c r="BZ55" s="4152" t="s">
-        <v>70</v>
+      <c r="BZ55" s="4153" t="s">
+        <v>71</v>
       </c>
       <c r="CA55" s="3575"/>
-      <c r="CB55" s="4153" t="s">
-        <v>70</v>
+      <c r="CB55" s="4154" t="s">
+        <v>71</v>
       </c>
       <c r="CC55" s="3577"/>
-      <c r="CD55" s="4154" t="s">
-        <v>70</v>
+      <c r="CD55" s="4155" t="s">
+        <v>71</v>
       </c>
       <c r="CE55" s="3579"/>
-      <c r="CF55" s="4155" t="s">
-        <v>70</v>
+      <c r="CF55" s="4156" t="s">
+        <v>71</v>
       </c>
       <c r="CG55" s="3581"/>
-      <c r="CH55" s="4156" t="s">
-        <v>70</v>
+      <c r="CH55" s="4157" t="s">
+        <v>71</v>
       </c>
       <c r="CI55" s="3583"/>
-      <c r="CJ55" s="4157" t="s">
-        <v>70</v>
+      <c r="CJ55" s="4158" t="s">
+        <v>71</v>
       </c>
       <c r="CK55" s="3585"/>
-      <c r="CL55" s="4158" t="s">
-        <v>70</v>
+      <c r="CL55" s="4159" t="s">
+        <v>71</v>
       </c>
       <c r="CM55" s="3587"/>
-      <c r="CN55" s="4159" t="s">
-        <v>70</v>
+      <c r="CN55" s="4160" t="s">
+        <v>71</v>
       </c>
       <c r="CO55" s="3589"/>
-      <c r="CP55" s="4160" t="s">
-        <v>70</v>
+      <c r="CP55" s="4161" t="s">
+        <v>71</v>
       </c>
       <c r="CQ55" s="3591"/>
       <c r="CR55" s="3592" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="CS55" s="3593"/>
       <c r="CT55" s="3594"/>
@@ -22689,7 +22712,7 @@
       <c r="AA56" s="3622"/>
       <c r="AB56" s="3623"/>
       <c r="AC56" s="3624"/>
-      <c r="AD56" s="4140" t="s">
+      <c r="AD56" s="4141" t="s">
         <v>62</v>
       </c>
       <c r="AE56" s="3626"/>
@@ -22713,11 +22736,11 @@
         <v>8.0</v>
       </c>
       <c r="AO56" s="3636"/>
-      <c r="AP56" s="4141" t="s">
+      <c r="AP56" s="4142" t="s">
         <v>62</v>
       </c>
       <c r="AQ56" s="3638"/>
-      <c r="AR56" s="4142" t="s">
+      <c r="AR56" s="4143" t="s">
         <v>62</v>
       </c>
       <c r="AS56" s="3640"/>
@@ -22741,11 +22764,11 @@
         <v>8.0</v>
       </c>
       <c r="BC56" s="3650"/>
-      <c r="BD56" s="4143" t="s">
+      <c r="BD56" s="4144" t="s">
         <v>62</v>
       </c>
       <c r="BE56" s="3652"/>
-      <c r="BF56" s="4144" t="s">
+      <c r="BF56" s="4145" t="s">
         <v>62</v>
       </c>
       <c r="BG56" s="3654"/>
@@ -22753,67 +22776,67 @@
       <c r="BI56" s="3656"/>
       <c r="BJ56" s="3657"/>
       <c r="BK56" s="3658"/>
-      <c r="BL56" s="4145" t="s">
+      <c r="BL56" s="4146" t="s">
         <v>62</v>
       </c>
       <c r="BM56" s="3660"/>
-      <c r="BN56" s="4146" t="s">
+      <c r="BN56" s="4147" t="s">
         <v>62</v>
       </c>
       <c r="BO56" s="3662"/>
-      <c r="BP56" s="4147" t="s">
+      <c r="BP56" s="4148" t="s">
         <v>62</v>
       </c>
       <c r="BQ56" s="3664"/>
-      <c r="BR56" s="4148" t="s">
+      <c r="BR56" s="4149" t="s">
         <v>62</v>
       </c>
       <c r="BS56" s="3666"/>
-      <c r="BT56" s="4149" t="s">
+      <c r="BT56" s="4150" t="s">
         <v>62</v>
       </c>
       <c r="BU56" s="3668"/>
-      <c r="BV56" s="4150" t="s">
+      <c r="BV56" s="4151" t="s">
         <v>62</v>
       </c>
       <c r="BW56" s="3670"/>
-      <c r="BX56" s="4151" t="s">
+      <c r="BX56" s="4152" t="s">
         <v>62</v>
       </c>
       <c r="BY56" s="3672"/>
-      <c r="BZ56" s="4152" t="s">
+      <c r="BZ56" s="4153" t="s">
         <v>62</v>
       </c>
       <c r="CA56" s="3674"/>
-      <c r="CB56" s="4153" t="s">
+      <c r="CB56" s="4154" t="s">
         <v>62</v>
       </c>
       <c r="CC56" s="3676"/>
-      <c r="CD56" s="4154" t="s">
+      <c r="CD56" s="4155" t="s">
         <v>62</v>
       </c>
       <c r="CE56" s="3678"/>
-      <c r="CF56" s="4155" t="s">
+      <c r="CF56" s="4156" t="s">
         <v>62</v>
       </c>
       <c r="CG56" s="3680"/>
-      <c r="CH56" s="4156" t="s">
+      <c r="CH56" s="4157" t="s">
         <v>62</v>
       </c>
       <c r="CI56" s="3682"/>
-      <c r="CJ56" s="4157" t="s">
+      <c r="CJ56" s="4158" t="s">
         <v>62</v>
       </c>
       <c r="CK56" s="3684"/>
-      <c r="CL56" s="4158" t="s">
+      <c r="CL56" s="4159" t="s">
         <v>62</v>
       </c>
       <c r="CM56" s="3686"/>
-      <c r="CN56" s="4159" t="s">
+      <c r="CN56" s="4160" t="s">
         <v>62</v>
       </c>
       <c r="CO56" s="3688"/>
-      <c r="CP56" s="4160" t="s">
+      <c r="CP56" s="4161" t="s">
         <v>62</v>
       </c>
       <c r="CQ56" s="3690"/>
@@ -22828,7 +22851,7 @@
       </c>
       <c r="B57" s="3696"/>
       <c r="C57" s="3697" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D57" s="3698"/>
       <c r="E57" s="3699"/>
@@ -22848,13 +22871,13 @@
       <c r="Q57" s="3711"/>
       <c r="R57" s="3712"/>
       <c r="S57" s="3713" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="T57" s="3714"/>
       <c r="U57" s="3715"/>
       <c r="V57" s="3716"/>
       <c r="W57" s="3717" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="X57" s="3718"/>
       <c r="Y57" s="3719"/>
@@ -22862,7 +22885,7 @@
       <c r="AA57" s="3721"/>
       <c r="AB57" s="3722"/>
       <c r="AC57" s="3723"/>
-      <c r="AD57" s="4161" t="s">
+      <c r="AD57" s="4162" t="s">
         <v>61</v>
       </c>
       <c r="AE57" s="3725"/>
@@ -22886,11 +22909,11 @@
         <v>63</v>
       </c>
       <c r="AO57" s="3735"/>
-      <c r="AP57" s="4162" t="s">
+      <c r="AP57" s="4163" t="s">
         <v>61</v>
       </c>
       <c r="AQ57" s="3737"/>
-      <c r="AR57" s="4163" t="s">
+      <c r="AR57" s="4164" t="s">
         <v>61</v>
       </c>
       <c r="AS57" s="3739"/>
@@ -22914,11 +22937,11 @@
         <v>63</v>
       </c>
       <c r="BC57" s="3749"/>
-      <c r="BD57" s="4164" t="s">
+      <c r="BD57" s="4165" t="s">
         <v>61</v>
       </c>
       <c r="BE57" s="3751"/>
-      <c r="BF57" s="4165" t="s">
+      <c r="BF57" s="4166" t="s">
         <v>61</v>
       </c>
       <c r="BG57" s="3753"/>
@@ -22940,226 +22963,226 @@
         <v>63</v>
       </c>
       <c r="BQ57" s="3763"/>
-      <c r="BR57" s="4166" t="s">
-        <v>70</v>
+      <c r="BR57" s="4167" t="s">
+        <v>71</v>
       </c>
       <c r="BS57" s="3765"/>
-      <c r="BT57" s="4167" t="s">
-        <v>70</v>
+      <c r="BT57" s="4168" t="s">
+        <v>71</v>
       </c>
       <c r="BU57" s="3767"/>
-      <c r="BV57" s="4168" t="s">
-        <v>70</v>
+      <c r="BV57" s="4169" t="s">
+        <v>71</v>
       </c>
       <c r="BW57" s="3769"/>
-      <c r="BX57" s="4169" t="s">
-        <v>70</v>
+      <c r="BX57" s="4170" t="s">
+        <v>71</v>
       </c>
       <c r="BY57" s="3771"/>
-      <c r="BZ57" s="4170" t="s">
-        <v>70</v>
+      <c r="BZ57" s="4171" t="s">
+        <v>71</v>
       </c>
       <c r="CA57" s="3773"/>
-      <c r="CB57" s="4171" t="s">
-        <v>70</v>
+      <c r="CB57" s="4172" t="s">
+        <v>71</v>
       </c>
       <c r="CC57" s="3775"/>
-      <c r="CD57" s="4172" t="s">
-        <v>70</v>
+      <c r="CD57" s="4173" t="s">
+        <v>71</v>
       </c>
       <c r="CE57" s="3777"/>
-      <c r="CF57" s="4173" t="s">
-        <v>70</v>
+      <c r="CF57" s="4174" t="s">
+        <v>71</v>
       </c>
       <c r="CG57" s="3779"/>
-      <c r="CH57" s="4174" t="s">
-        <v>70</v>
+      <c r="CH57" s="4175" t="s">
+        <v>71</v>
       </c>
       <c r="CI57" s="3781"/>
-      <c r="CJ57" s="4175" t="s">
-        <v>70</v>
+      <c r="CJ57" s="4176" t="s">
+        <v>71</v>
       </c>
       <c r="CK57" s="3783"/>
-      <c r="CL57" s="4176" t="s">
-        <v>70</v>
+      <c r="CL57" s="4177" t="s">
+        <v>71</v>
       </c>
       <c r="CM57" s="3785"/>
-      <c r="CN57" s="4177" t="s">
-        <v>70</v>
+      <c r="CN57" s="4178" t="s">
+        <v>71</v>
       </c>
       <c r="CO57" s="3787"/>
-      <c r="CP57" s="4178" t="s">
-        <v>70</v>
+      <c r="CP57" s="4179" t="s">
+        <v>71</v>
       </c>
       <c r="CQ57" s="3789"/>
       <c r="CR57" s="3790" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="CS57" s="3791"/>
       <c r="CT57" s="3792"/>
       <c r="CU57" s="63"/>
     </row>
     <row r="58">
-      <c r="A58" s="4179"/>
-      <c r="B58" s="4180"/>
-      <c r="C58" s="4181"/>
-      <c r="D58" s="4181"/>
-      <c r="E58" s="4181"/>
-      <c r="F58" s="4181"/>
-      <c r="G58" s="4181"/>
-      <c r="H58" s="4181"/>
-      <c r="I58" s="4181"/>
-      <c r="J58" s="4181"/>
-      <c r="K58" s="4181"/>
-      <c r="L58" s="4181"/>
-      <c r="M58" s="4181"/>
-      <c r="N58" s="4181"/>
-      <c r="O58" s="4182"/>
-      <c r="P58" s="4183"/>
-      <c r="Q58" s="4183"/>
-      <c r="R58" s="4184"/>
-      <c r="S58" s="4182"/>
-      <c r="T58" s="4183"/>
-      <c r="U58" s="4183"/>
-      <c r="V58" s="4184"/>
-      <c r="W58" s="4182"/>
-      <c r="X58" s="4183"/>
-      <c r="Y58" s="4183"/>
-      <c r="Z58" s="4183"/>
-      <c r="AA58" s="4183"/>
-      <c r="AB58" s="4183"/>
-      <c r="AC58" s="4184"/>
-      <c r="AD58" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE58" s="4186"/>
-      <c r="AF58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AG58" s="4186"/>
-      <c r="AH58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AI58" s="4186"/>
-      <c r="AJ58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AK58" s="4186"/>
-      <c r="AL58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AM58" s="4186"/>
-      <c r="AN58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AO58" s="4186"/>
-      <c r="AP58" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ58" s="4186"/>
-      <c r="AR58" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS58" s="4186"/>
-      <c r="AT58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AU58" s="4186"/>
-      <c r="AV58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AW58" s="4186"/>
-      <c r="AX58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AY58" s="4186"/>
-      <c r="AZ58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BA58" s="4186"/>
-      <c r="BB58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BC58" s="4186"/>
-      <c r="BD58" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE58" s="4186"/>
-      <c r="BF58" s="4185" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG58" s="4186"/>
-      <c r="BH58" s="4187"/>
-      <c r="BI58" s="4187"/>
-      <c r="BJ58" s="4187"/>
-      <c r="BK58" s="4187"/>
-      <c r="BL58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BM58" s="4186"/>
-      <c r="BN58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BO58" s="4186"/>
-      <c r="BP58" s="4186" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BQ58" s="4186"/>
-      <c r="BR58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS58" s="4186"/>
-      <c r="BT58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU58" s="4186"/>
-      <c r="BV58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BW58" s="4186"/>
-      <c r="BX58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="BY58" s="4186"/>
-      <c r="BZ58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CA58" s="4186"/>
-      <c r="CB58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC58" s="4186"/>
-      <c r="CD58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE58" s="4186"/>
-      <c r="CF58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG58" s="4186"/>
-      <c r="CH58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CI58" s="4186"/>
-      <c r="CJ58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CK58" s="4186"/>
-      <c r="CL58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CM58" s="4186"/>
-      <c r="CN58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CO58" s="4186"/>
-      <c r="CP58" s="4188" t="s">
-        <v>62</v>
-      </c>
-      <c r="CQ58" s="4186"/>
-      <c r="CR58" s="4187"/>
-      <c r="CS58" s="4187"/>
-      <c r="CT58" s="4187"/>
+      <c r="A58" s="4180"/>
+      <c r="B58" s="4181"/>
+      <c r="C58" s="4182"/>
+      <c r="D58" s="4182"/>
+      <c r="E58" s="4182"/>
+      <c r="F58" s="4182"/>
+      <c r="G58" s="4182"/>
+      <c r="H58" s="4182"/>
+      <c r="I58" s="4182"/>
+      <c r="J58" s="4182"/>
+      <c r="K58" s="4182"/>
+      <c r="L58" s="4182"/>
+      <c r="M58" s="4182"/>
+      <c r="N58" s="4182"/>
+      <c r="O58" s="4183"/>
+      <c r="P58" s="4184"/>
+      <c r="Q58" s="4184"/>
+      <c r="R58" s="4185"/>
+      <c r="S58" s="4183"/>
+      <c r="T58" s="4184"/>
+      <c r="U58" s="4184"/>
+      <c r="V58" s="4185"/>
+      <c r="W58" s="4183"/>
+      <c r="X58" s="4184"/>
+      <c r="Y58" s="4184"/>
+      <c r="Z58" s="4184"/>
+      <c r="AA58" s="4184"/>
+      <c r="AB58" s="4184"/>
+      <c r="AC58" s="4185"/>
+      <c r="AD58" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE58" s="4187"/>
+      <c r="AF58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG58" s="4187"/>
+      <c r="AH58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI58" s="4187"/>
+      <c r="AJ58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK58" s="4187"/>
+      <c r="AL58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AM58" s="4187"/>
+      <c r="AN58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AO58" s="4187"/>
+      <c r="AP58" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ58" s="4187"/>
+      <c r="AR58" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS58" s="4187"/>
+      <c r="AT58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AU58" s="4187"/>
+      <c r="AV58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AW58" s="4187"/>
+      <c r="AX58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AY58" s="4187"/>
+      <c r="AZ58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BA58" s="4187"/>
+      <c r="BB58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BC58" s="4187"/>
+      <c r="BD58" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE58" s="4187"/>
+      <c r="BF58" s="4186" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG58" s="4187"/>
+      <c r="BH58" s="4188"/>
+      <c r="BI58" s="4188"/>
+      <c r="BJ58" s="4188"/>
+      <c r="BK58" s="4188"/>
+      <c r="BL58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BM58" s="4187"/>
+      <c r="BN58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BO58" s="4187"/>
+      <c r="BP58" s="4187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BQ58" s="4187"/>
+      <c r="BR58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS58" s="4187"/>
+      <c r="BT58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU58" s="4187"/>
+      <c r="BV58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW58" s="4187"/>
+      <c r="BX58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY58" s="4187"/>
+      <c r="BZ58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA58" s="4187"/>
+      <c r="CB58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC58" s="4187"/>
+      <c r="CD58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE58" s="4187"/>
+      <c r="CF58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG58" s="4187"/>
+      <c r="CH58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CI58" s="4187"/>
+      <c r="CJ58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CK58" s="4187"/>
+      <c r="CL58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CM58" s="4187"/>
+      <c r="CN58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CO58" s="4187"/>
+      <c r="CP58" s="4191" t="s">
+        <v>62</v>
+      </c>
+      <c r="CQ58" s="4187"/>
+      <c r="CR58" s="4188"/>
+      <c r="CS58" s="4188"/>
+      <c r="CT58" s="4188"/>
       <c r="CU58" s="4189"/>
     </row>
     <row customFormat="1" r="59" s="21" spans="1:99" x14ac:dyDescent="0.2">
